--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
@@ -3656,7 +3656,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
@@ -3786,15 +3786,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4138,15 +4130,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AO360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB303" sqref="AB303"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -4231,7 +4223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:41">
+    <row r="2" spans="1:41">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4306,7 +4298,7 @@
       <c r="AN2" s="27"/>
       <c r="AO2" s="28"/>
     </row>
-    <row r="3" ht="41" hidden="1" spans="1:41">
+    <row r="3" ht="41" spans="1:41">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4387,7 +4379,7 @@
       <c r="AN3" s="27"/>
       <c r="AO3" s="28"/>
     </row>
-    <row r="4" hidden="1" spans="1:41">
+    <row r="4" spans="1:41">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -4444,7 +4436,7 @@
       <c r="AN4" s="15"/>
       <c r="AO4" s="15"/>
     </row>
-    <row r="5" hidden="1" spans="1:41">
+    <row r="5" spans="1:41">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -4501,7 +4493,7 @@
       <c r="AN5" s="15"/>
       <c r="AO5" s="15"/>
     </row>
-    <row r="6" hidden="1" spans="1:41">
+    <row r="6" spans="1:41">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
@@ -4558,7 +4550,7 @@
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
     </row>
-    <row r="7" hidden="1" spans="1:41">
+    <row r="7" spans="1:41">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -4615,7 +4607,7 @@
       <c r="AN7" s="15"/>
       <c r="AO7" s="15"/>
     </row>
-    <row r="8" hidden="1" spans="1:41">
+    <row r="8" spans="1:41">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -4672,7 +4664,7 @@
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
     </row>
-    <row r="9" hidden="1" spans="1:41">
+    <row r="9" spans="1:41">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -4729,7 +4721,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
     </row>
-    <row r="10" hidden="1" spans="1:41">
+    <row r="10" spans="1:41">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
@@ -4786,7 +4778,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
     </row>
-    <row r="11" hidden="1" spans="1:41">
+    <row r="11" spans="1:41">
       <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
@@ -4843,7 +4835,7 @@
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
     </row>
-    <row r="12" hidden="1" spans="1:41">
+    <row r="12" spans="1:41">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -4902,7 +4894,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:41">
+    <row r="13" spans="1:41">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -4961,7 +4953,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:41">
+    <row r="14" spans="1:41">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5010,7 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
     </row>
-    <row r="15" hidden="1" spans="1:41">
+    <row r="15" spans="1:41">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -5075,7 +5067,7 @@
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
     </row>
-    <row r="16" hidden="1" spans="1:41">
+    <row r="16" spans="1:41">
       <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
@@ -5132,7 +5124,7 @@
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
     </row>
-    <row r="17" hidden="1" spans="1:41">
+    <row r="17" spans="1:41">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -5189,7 +5181,7 @@
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
     </row>
-    <row r="18" hidden="1" spans="1:41">
+    <row r="18" spans="1:41">
       <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
@@ -5246,7 +5238,7 @@
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
     </row>
-    <row r="19" hidden="1" spans="1:41">
+    <row r="19" spans="1:41">
       <c r="A19" s="7" t="s">
         <v>91</v>
       </c>
@@ -5303,7 +5295,7 @@
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
     </row>
-    <row r="20" hidden="1" spans="1:41">
+    <row r="20" spans="1:41">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
@@ -5360,7 +5352,7 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
     </row>
-    <row r="21" hidden="1" spans="1:41">
+    <row r="21" spans="1:41">
       <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
@@ -5417,7 +5409,7 @@
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
     </row>
-    <row r="22" hidden="1" spans="1:41">
+    <row r="22" spans="1:41">
       <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
@@ -5474,7 +5466,7 @@
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
     </row>
-    <row r="23" hidden="1" spans="1:41">
+    <row r="23" spans="1:41">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -5531,7 +5523,7 @@
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
     </row>
-    <row r="24" hidden="1" spans="1:41">
+    <row r="24" spans="1:41">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -5588,7 +5580,7 @@
       <c r="AN24" s="15"/>
       <c r="AO24" s="15"/>
     </row>
-    <row r="25" hidden="1" spans="1:41">
+    <row r="25" spans="1:41">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -5645,7 +5637,7 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="15"/>
     </row>
-    <row r="26" hidden="1" spans="1:41">
+    <row r="26" spans="1:41">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -5702,7 +5694,7 @@
       <c r="AN26" s="15"/>
       <c r="AO26" s="15"/>
     </row>
-    <row r="27" hidden="1" spans="1:41">
+    <row r="27" spans="1:41">
       <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
@@ -5759,7 +5751,7 @@
       <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
     </row>
-    <row r="28" hidden="1" spans="1:41">
+    <row r="28" spans="1:41">
       <c r="A28" s="7" t="s">
         <v>114</v>
       </c>
@@ -5816,7 +5808,7 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="15"/>
     </row>
-    <row r="29" hidden="1" spans="1:41">
+    <row r="29" spans="1:41">
       <c r="A29" s="7" t="s">
         <v>116</v>
       </c>
@@ -5873,7 +5865,7 @@
       <c r="AN29" s="15"/>
       <c r="AO29" s="15"/>
     </row>
-    <row r="30" hidden="1" spans="1:41">
+    <row r="30" spans="1:41">
       <c r="A30" s="7" t="s">
         <v>119</v>
       </c>
@@ -5930,7 +5922,7 @@
       <c r="AN30" s="15"/>
       <c r="AO30" s="15"/>
     </row>
-    <row r="31" hidden="1" spans="1:41">
+    <row r="31" spans="1:41">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -5987,7 +5979,7 @@
       <c r="AN31" s="15"/>
       <c r="AO31" s="15"/>
     </row>
-    <row r="32" hidden="1" spans="1:41">
+    <row r="32" spans="1:41">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
@@ -6044,7 +6036,7 @@
       <c r="AN32" s="15"/>
       <c r="AO32" s="15"/>
     </row>
-    <row r="33" hidden="1" spans="1:41">
+    <row r="33" spans="1:41">
       <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
@@ -6101,7 +6093,7 @@
       <c r="AN33" s="15"/>
       <c r="AO33" s="15"/>
     </row>
-    <row r="34" hidden="1" spans="1:41">
+    <row r="34" spans="1:41">
       <c r="A34" s="7" t="s">
         <v>131</v>
       </c>
@@ -6158,7 +6150,7 @@
       <c r="AN34" s="15"/>
       <c r="AO34" s="15"/>
     </row>
-    <row r="35" hidden="1" spans="1:41">
+    <row r="35" spans="1:41">
       <c r="A35" s="7" t="s">
         <v>134</v>
       </c>
@@ -6215,7 +6207,7 @@
       <c r="AN35" s="15"/>
       <c r="AO35" s="15"/>
     </row>
-    <row r="36" hidden="1" spans="1:41">
+    <row r="36" spans="1:41">
       <c r="A36" s="7" t="s">
         <v>137</v>
       </c>
@@ -6272,7 +6264,7 @@
       <c r="AN36" s="15"/>
       <c r="AO36" s="15"/>
     </row>
-    <row r="37" hidden="1" spans="1:41">
+    <row r="37" spans="1:41">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -6329,7 +6321,7 @@
       <c r="AN37" s="15"/>
       <c r="AO37" s="15"/>
     </row>
-    <row r="38" hidden="1" spans="1:41">
+    <row r="38" spans="1:41">
       <c r="A38" s="7" t="s">
         <v>142</v>
       </c>
@@ -6386,7 +6378,7 @@
       <c r="AN38" s="15"/>
       <c r="AO38" s="15"/>
     </row>
-    <row r="39" hidden="1" spans="1:41">
+    <row r="39" spans="1:41">
       <c r="A39" s="7" t="s">
         <v>144</v>
       </c>
@@ -6443,7 +6435,7 @@
       <c r="AN39" s="15"/>
       <c r="AO39" s="15"/>
     </row>
-    <row r="40" hidden="1" spans="1:41">
+    <row r="40" spans="1:41">
       <c r="A40" s="7" t="s">
         <v>146</v>
       </c>
@@ -6500,7 +6492,7 @@
       <c r="AN40" s="15"/>
       <c r="AO40" s="15"/>
     </row>
-    <row r="41" hidden="1" spans="1:41">
+    <row r="41" spans="1:41">
       <c r="A41" s="7" t="s">
         <v>148</v>
       </c>
@@ -6557,7 +6549,7 @@
       <c r="AN41" s="15"/>
       <c r="AO41" s="15"/>
     </row>
-    <row r="42" hidden="1" spans="1:41">
+    <row r="42" spans="1:41">
       <c r="A42" s="7" t="s">
         <v>151</v>
       </c>
@@ -6614,7 +6606,7 @@
       <c r="AN42" s="15"/>
       <c r="AO42" s="15"/>
     </row>
-    <row r="43" hidden="1" spans="1:41">
+    <row r="43" spans="1:41">
       <c r="A43" s="7" t="s">
         <v>154</v>
       </c>
@@ -6673,7 +6665,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:41">
+    <row r="44" spans="1:41">
       <c r="A44" s="7" t="s">
         <v>157</v>
       </c>
@@ -6809,7 +6801,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:41">
+    <row r="46" spans="1:41">
       <c r="A46" s="7" t="s">
         <v>162</v>
       </c>
@@ -6866,7 +6858,7 @@
       <c r="AN46" s="15"/>
       <c r="AO46" s="15"/>
     </row>
-    <row r="47" hidden="1" spans="1:41">
+    <row r="47" spans="1:41">
       <c r="A47" s="7" t="s">
         <v>165</v>
       </c>
@@ -6923,7 +6915,7 @@
       <c r="AN47" s="15"/>
       <c r="AO47" s="15"/>
     </row>
-    <row r="48" hidden="1" spans="1:41">
+    <row r="48" spans="1:41">
       <c r="A48" s="7" t="s">
         <v>167</v>
       </c>
@@ -6980,7 +6972,7 @@
       <c r="AN48" s="15"/>
       <c r="AO48" s="15"/>
     </row>
-    <row r="49" hidden="1" spans="1:41">
+    <row r="49" spans="1:41">
       <c r="A49" s="7" t="s">
         <v>170</v>
       </c>
@@ -7037,7 +7029,7 @@
       <c r="AN49" s="15"/>
       <c r="AO49" s="15"/>
     </row>
-    <row r="50" hidden="1" spans="1:41">
+    <row r="50" spans="1:41">
       <c r="A50" s="7" t="s">
         <v>173</v>
       </c>
@@ -7094,7 +7086,7 @@
       <c r="AN50" s="15"/>
       <c r="AO50" s="15"/>
     </row>
-    <row r="51" hidden="1" spans="1:41">
+    <row r="51" spans="1:41">
       <c r="A51" s="10" t="s">
         <v>176</v>
       </c>
@@ -7153,7 +7145,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:41">
+    <row r="52" spans="1:41">
       <c r="A52" s="7" t="s">
         <v>178</v>
       </c>
@@ -7210,7 +7202,7 @@
       <c r="AN52" s="15"/>
       <c r="AO52" s="15"/>
     </row>
-    <row r="53" hidden="1" spans="1:41">
+    <row r="53" spans="1:41">
       <c r="A53" s="7" t="s">
         <v>181</v>
       </c>
@@ -7267,7 +7259,7 @@
       <c r="AN53" s="15"/>
       <c r="AO53" s="15"/>
     </row>
-    <row r="54" hidden="1" spans="1:41">
+    <row r="54" spans="1:41">
       <c r="A54" s="7" t="s">
         <v>184</v>
       </c>
@@ -7324,7 +7316,7 @@
       <c r="AN54" s="15"/>
       <c r="AO54" s="15"/>
     </row>
-    <row r="55" hidden="1" spans="1:41">
+    <row r="55" spans="1:41">
       <c r="A55" s="7" t="s">
         <v>187</v>
       </c>
@@ -7381,7 +7373,7 @@
       <c r="AN55" s="15"/>
       <c r="AO55" s="15"/>
     </row>
-    <row r="56" hidden="1" spans="1:41">
+    <row r="56" spans="1:41">
       <c r="A56" s="7" t="s">
         <v>190</v>
       </c>
@@ -7467,7 +7459,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:41">
+    <row r="57" spans="1:41">
       <c r="A57" s="7" t="s">
         <v>192</v>
       </c>
@@ -7524,7 +7516,7 @@
       <c r="AN57" s="15"/>
       <c r="AO57" s="15"/>
     </row>
-    <row r="58" hidden="1" spans="1:41">
+    <row r="58" spans="1:41">
       <c r="A58" s="7" t="s">
         <v>195</v>
       </c>
@@ -7581,7 +7573,7 @@
       <c r="AN58" s="15"/>
       <c r="AO58" s="15"/>
     </row>
-    <row r="59" hidden="1" spans="1:41">
+    <row r="59" spans="1:41">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -7638,7 +7630,7 @@
       <c r="AN59" s="15"/>
       <c r="AO59" s="15"/>
     </row>
-    <row r="60" hidden="1" spans="1:41">
+    <row r="60" spans="1:41">
       <c r="A60" s="7" t="s">
         <v>200</v>
       </c>
@@ -7697,7 +7689,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:41">
+    <row r="61" spans="1:41">
       <c r="A61" s="7" t="s">
         <v>203</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:41">
+    <row r="63" spans="1:41">
       <c r="A63" s="7" t="s">
         <v>207</v>
       </c>
@@ -7904,7 +7896,7 @@
       <c r="AN63" s="15"/>
       <c r="AO63" s="15"/>
     </row>
-    <row r="64" hidden="1" spans="1:41">
+    <row r="64" spans="1:41">
       <c r="A64" s="7" t="s">
         <v>209</v>
       </c>
@@ -7961,7 +7953,7 @@
       <c r="AN64" s="15"/>
       <c r="AO64" s="15"/>
     </row>
-    <row r="65" hidden="1" spans="1:41">
+    <row r="65" spans="1:41">
       <c r="A65" s="7" t="s">
         <v>211</v>
       </c>
@@ -8018,7 +8010,7 @@
       <c r="AN65" s="15"/>
       <c r="AO65" s="15"/>
     </row>
-    <row r="66" hidden="1" spans="1:41">
+    <row r="66" spans="1:41">
       <c r="A66" s="7" t="s">
         <v>214</v>
       </c>
@@ -8075,7 +8067,7 @@
       <c r="AN66" s="15"/>
       <c r="AO66" s="15"/>
     </row>
-    <row r="67" hidden="1" spans="1:41">
+    <row r="67" spans="1:41">
       <c r="A67" s="7" t="s">
         <v>216</v>
       </c>
@@ -8132,7 +8124,7 @@
       <c r="AN67" s="15"/>
       <c r="AO67" s="15"/>
     </row>
-    <row r="68" hidden="1" spans="1:41">
+    <row r="68" spans="1:41">
       <c r="A68" s="7" t="s">
         <v>218</v>
       </c>
@@ -8191,7 +8183,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:41">
+    <row r="69" spans="1:41">
       <c r="A69" s="7" t="s">
         <v>220</v>
       </c>
@@ -8248,7 +8240,7 @@
       <c r="AN69" s="15"/>
       <c r="AO69" s="15"/>
     </row>
-    <row r="70" hidden="1" spans="1:41">
+    <row r="70" spans="1:41">
       <c r="A70" s="7" t="s">
         <v>223</v>
       </c>
@@ -8305,7 +8297,7 @@
       <c r="AN70" s="15"/>
       <c r="AO70" s="15"/>
     </row>
-    <row r="71" hidden="1" spans="1:41">
+    <row r="71" spans="1:41">
       <c r="A71" s="7" t="s">
         <v>225</v>
       </c>
@@ -8362,7 +8354,7 @@
       <c r="AN71" s="15"/>
       <c r="AO71" s="15"/>
     </row>
-    <row r="72" hidden="1" spans="1:41">
+    <row r="72" spans="1:41">
       <c r="A72" s="7" t="s">
         <v>227</v>
       </c>
@@ -8419,7 +8411,7 @@
       <c r="AN72" s="15"/>
       <c r="AO72" s="15"/>
     </row>
-    <row r="73" hidden="1" spans="1:41">
+    <row r="73" spans="1:41">
       <c r="A73" s="7" t="s">
         <v>229</v>
       </c>
@@ -8476,7 +8468,7 @@
       <c r="AN73" s="15"/>
       <c r="AO73" s="15"/>
     </row>
-    <row r="74" hidden="1" spans="1:41">
+    <row r="74" spans="1:41">
       <c r="A74" s="7" t="s">
         <v>232</v>
       </c>
@@ -8533,7 +8525,7 @@
       <c r="AN74" s="15"/>
       <c r="AO74" s="15"/>
     </row>
-    <row r="75" hidden="1" spans="1:41">
+    <row r="75" spans="1:41">
       <c r="A75" s="7" t="s">
         <v>234</v>
       </c>
@@ -8590,7 +8582,7 @@
       <c r="AN75" s="15"/>
       <c r="AO75" s="15"/>
     </row>
-    <row r="76" hidden="1" spans="1:41">
+    <row r="76" spans="1:41">
       <c r="A76" s="7" t="s">
         <v>236</v>
       </c>
@@ -8647,7 +8639,7 @@
       <c r="AN76" s="15"/>
       <c r="AO76" s="15"/>
     </row>
-    <row r="77" hidden="1" spans="1:41">
+    <row r="77" spans="1:41">
       <c r="A77" s="7" t="s">
         <v>239</v>
       </c>
@@ -8804,7 +8796,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:41">
+    <row r="79" spans="1:41">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -8861,7 +8853,7 @@
       <c r="AN79" s="15"/>
       <c r="AO79" s="15"/>
     </row>
-    <row r="80" hidden="1" spans="1:41">
+    <row r="80" spans="1:41">
       <c r="A80" s="7" t="s">
         <v>247</v>
       </c>
@@ -8918,7 +8910,7 @@
       <c r="AN80" s="15"/>
       <c r="AO80" s="15"/>
     </row>
-    <row r="81" hidden="1" spans="1:41">
+    <row r="81" spans="1:41">
       <c r="A81" s="7" t="s">
         <v>249</v>
       </c>
@@ -8975,7 +8967,7 @@
       <c r="AN81" s="15"/>
       <c r="AO81" s="15"/>
     </row>
-    <row r="82" hidden="1" spans="1:41">
+    <row r="82" spans="1:41">
       <c r="A82" s="7" t="s">
         <v>251</v>
       </c>
@@ -9034,7 +9026,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:41">
+    <row r="83" spans="1:41">
       <c r="A83" s="7" t="s">
         <v>254</v>
       </c>
@@ -9091,7 +9083,7 @@
       <c r="AN83" s="15"/>
       <c r="AO83" s="15"/>
     </row>
-    <row r="84" hidden="1" spans="1:41">
+    <row r="84" spans="1:41">
       <c r="A84" s="7" t="s">
         <v>257</v>
       </c>
@@ -9255,7 +9247,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:41">
+    <row r="86" spans="1:41">
       <c r="A86" s="7" t="s">
         <v>261</v>
       </c>
@@ -9312,7 +9304,7 @@
       <c r="AN86" s="15"/>
       <c r="AO86" s="15"/>
     </row>
-    <row r="87" hidden="1" spans="1:41">
+    <row r="87" spans="1:41">
       <c r="A87" s="7" t="s">
         <v>264</v>
       </c>
@@ -9369,7 +9361,7 @@
       <c r="AN87" s="15"/>
       <c r="AO87" s="15"/>
     </row>
-    <row r="88" hidden="1" spans="1:41">
+    <row r="88" spans="1:41">
       <c r="A88" s="7" t="s">
         <v>267</v>
       </c>
@@ -9426,7 +9418,7 @@
       <c r="AN88" s="15"/>
       <c r="AO88" s="15"/>
     </row>
-    <row r="89" hidden="1" spans="1:41">
+    <row r="89" spans="1:41">
       <c r="A89" s="7" t="s">
         <v>269</v>
       </c>
@@ -9483,7 +9475,7 @@
       <c r="AN89" s="15"/>
       <c r="AO89" s="15"/>
     </row>
-    <row r="90" hidden="1" spans="1:41">
+    <row r="90" spans="1:41">
       <c r="A90" s="7" t="s">
         <v>271</v>
       </c>
@@ -9540,7 +9532,7 @@
       <c r="AN90" s="15"/>
       <c r="AO90" s="15"/>
     </row>
-    <row r="91" hidden="1" spans="1:41">
+    <row r="91" spans="1:41">
       <c r="A91" s="7" t="s">
         <v>274</v>
       </c>
@@ -9597,7 +9589,7 @@
       <c r="AN91" s="15"/>
       <c r="AO91" s="15"/>
     </row>
-    <row r="92" hidden="1" spans="1:41">
+    <row r="92" spans="1:41">
       <c r="A92" s="7" t="s">
         <v>277</v>
       </c>
@@ -9654,7 +9646,7 @@
       <c r="AN92" s="15"/>
       <c r="AO92" s="15"/>
     </row>
-    <row r="93" hidden="1" spans="1:41">
+    <row r="93" spans="1:41">
       <c r="A93" s="7" t="s">
         <v>279</v>
       </c>
@@ -9711,7 +9703,7 @@
       <c r="AN93" s="15"/>
       <c r="AO93" s="15"/>
     </row>
-    <row r="94" hidden="1" spans="1:41">
+    <row r="94" spans="1:41">
       <c r="A94" s="7" t="s">
         <v>281</v>
       </c>
@@ -9768,7 +9760,7 @@
       <c r="AN94" s="15"/>
       <c r="AO94" s="15"/>
     </row>
-    <row r="95" hidden="1" spans="1:41">
+    <row r="95" spans="1:41">
       <c r="A95" s="7" t="s">
         <v>283</v>
       </c>
@@ -9825,7 +9817,7 @@
       <c r="AN95" s="15"/>
       <c r="AO95" s="15"/>
     </row>
-    <row r="96" hidden="1" spans="1:41">
+    <row r="96" spans="1:41">
       <c r="A96" s="7" t="s">
         <v>285</v>
       </c>
@@ -9882,7 +9874,7 @@
       <c r="AN96" s="15"/>
       <c r="AO96" s="15"/>
     </row>
-    <row r="97" hidden="1" spans="1:41">
+    <row r="97" spans="1:41">
       <c r="A97" s="7" t="s">
         <v>288</v>
       </c>
@@ -9939,7 +9931,7 @@
       <c r="AN97" s="15"/>
       <c r="AO97" s="15"/>
     </row>
-    <row r="98" hidden="1" spans="1:41">
+    <row r="98" spans="1:41">
       <c r="A98" s="7" t="s">
         <v>290</v>
       </c>
@@ -9996,7 +9988,7 @@
       <c r="AN98" s="15"/>
       <c r="AO98" s="15"/>
     </row>
-    <row r="99" hidden="1" spans="1:41">
+    <row r="99" spans="1:41">
       <c r="A99" s="7" t="s">
         <v>293</v>
       </c>
@@ -10053,7 +10045,7 @@
       <c r="AN99" s="15"/>
       <c r="AO99" s="15"/>
     </row>
-    <row r="100" hidden="1" spans="1:41">
+    <row r="100" spans="1:41">
       <c r="A100" s="7" t="s">
         <v>296</v>
       </c>
@@ -10110,7 +10102,7 @@
       <c r="AN100" s="15"/>
       <c r="AO100" s="15"/>
     </row>
-    <row r="101" hidden="1" spans="1:41">
+    <row r="101" spans="1:41">
       <c r="A101" s="7" t="s">
         <v>298</v>
       </c>
@@ -10167,7 +10159,7 @@
       <c r="AN101" s="15"/>
       <c r="AO101" s="15"/>
     </row>
-    <row r="102" hidden="1" spans="1:41">
+    <row r="102" spans="1:41">
       <c r="A102" s="7" t="s">
         <v>301</v>
       </c>
@@ -10226,7 +10218,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:41">
+    <row r="103" spans="1:41">
       <c r="A103" s="7" t="s">
         <v>304</v>
       </c>
@@ -10283,7 +10275,7 @@
       <c r="AN103" s="15"/>
       <c r="AO103" s="15"/>
     </row>
-    <row r="104" hidden="1" spans="1:41">
+    <row r="104" spans="1:41">
       <c r="A104" s="7" t="s">
         <v>306</v>
       </c>
@@ -10340,7 +10332,7 @@
       <c r="AN104" s="15"/>
       <c r="AO104" s="15"/>
     </row>
-    <row r="105" hidden="1" spans="1:41">
+    <row r="105" spans="1:41">
       <c r="A105" s="7" t="s">
         <v>308</v>
       </c>
@@ -10397,7 +10389,7 @@
       <c r="AN105" s="15"/>
       <c r="AO105" s="15"/>
     </row>
-    <row r="106" hidden="1" spans="1:41">
+    <row r="106" spans="1:41">
       <c r="A106" s="7" t="s">
         <v>310</v>
       </c>
@@ -10454,7 +10446,7 @@
       <c r="AN106" s="15"/>
       <c r="AO106" s="15"/>
     </row>
-    <row r="107" hidden="1" spans="1:41">
+    <row r="107" spans="1:41">
       <c r="A107" s="7" t="s">
         <v>312</v>
       </c>
@@ -10511,7 +10503,7 @@
       <c r="AN107" s="15"/>
       <c r="AO107" s="15"/>
     </row>
-    <row r="108" hidden="1" spans="1:41">
+    <row r="108" spans="1:41">
       <c r="A108" s="7" t="s">
         <v>315</v>
       </c>
@@ -10568,7 +10560,7 @@
       <c r="AN108" s="15"/>
       <c r="AO108" s="15"/>
     </row>
-    <row r="109" hidden="1" spans="1:41">
+    <row r="109" spans="1:41">
       <c r="A109" s="7" t="s">
         <v>318</v>
       </c>
@@ -10625,7 +10617,7 @@
       <c r="AN109" s="15"/>
       <c r="AO109" s="15"/>
     </row>
-    <row r="110" hidden="1" spans="1:41">
+    <row r="110" spans="1:41">
       <c r="A110" s="7" t="s">
         <v>320</v>
       </c>
@@ -10682,7 +10674,7 @@
       <c r="AN110" s="15"/>
       <c r="AO110" s="15"/>
     </row>
-    <row r="111" hidden="1" spans="1:41">
+    <row r="111" spans="1:41">
       <c r="A111" s="7" t="s">
         <v>323</v>
       </c>
@@ -10739,7 +10731,7 @@
       <c r="AN111" s="15"/>
       <c r="AO111" s="15"/>
     </row>
-    <row r="112" hidden="1" spans="1:41">
+    <row r="112" spans="1:41">
       <c r="A112" s="7" t="s">
         <v>325</v>
       </c>
@@ -10796,7 +10788,7 @@
       <c r="AN112" s="15"/>
       <c r="AO112" s="15"/>
     </row>
-    <row r="113" hidden="1" spans="1:41">
+    <row r="113" spans="1:41">
       <c r="A113" s="7" t="s">
         <v>327</v>
       </c>
@@ -10853,7 +10845,7 @@
       <c r="AN113" s="15"/>
       <c r="AO113" s="15"/>
     </row>
-    <row r="114" hidden="1" spans="1:41">
+    <row r="114" spans="1:41">
       <c r="A114" s="7" t="s">
         <v>330</v>
       </c>
@@ -10910,7 +10902,7 @@
       <c r="AN114" s="15"/>
       <c r="AO114" s="15"/>
     </row>
-    <row r="115" hidden="1" spans="1:41">
+    <row r="115" spans="1:41">
       <c r="A115" s="7" t="s">
         <v>332</v>
       </c>
@@ -10967,7 +10959,7 @@
       <c r="AN115" s="15"/>
       <c r="AO115" s="15"/>
     </row>
-    <row r="116" hidden="1" spans="1:41">
+    <row r="116" spans="1:41">
       <c r="A116" s="7" t="s">
         <v>334</v>
       </c>
@@ -11024,7 +11016,7 @@
       <c r="AN116" s="15"/>
       <c r="AO116" s="15"/>
     </row>
-    <row r="117" hidden="1" spans="1:41">
+    <row r="117" spans="1:41">
       <c r="A117" s="7" t="s">
         <v>336</v>
       </c>
@@ -11081,7 +11073,7 @@
       <c r="AN117" s="15"/>
       <c r="AO117" s="15"/>
     </row>
-    <row r="118" hidden="1" spans="1:41">
+    <row r="118" spans="1:41">
       <c r="A118" s="7" t="s">
         <v>338</v>
       </c>
@@ -11138,7 +11130,7 @@
       <c r="AN118" s="15"/>
       <c r="AO118" s="15"/>
     </row>
-    <row r="119" hidden="1" spans="1:41">
+    <row r="119" spans="1:41">
       <c r="A119" s="7" t="s">
         <v>341</v>
       </c>
@@ -11195,7 +11187,7 @@
       <c r="AN119" s="15"/>
       <c r="AO119" s="15"/>
     </row>
-    <row r="120" hidden="1" spans="1:41">
+    <row r="120" spans="1:41">
       <c r="A120" s="7" t="s">
         <v>344</v>
       </c>
@@ -11252,7 +11244,7 @@
       <c r="AN120" s="15"/>
       <c r="AO120" s="15"/>
     </row>
-    <row r="121" hidden="1" spans="1:41">
+    <row r="121" spans="1:41">
       <c r="A121" s="7" t="s">
         <v>346</v>
       </c>
@@ -11309,7 +11301,7 @@
       <c r="AN121" s="15"/>
       <c r="AO121" s="15"/>
     </row>
-    <row r="122" hidden="1" spans="1:41">
+    <row r="122" spans="1:41">
       <c r="A122" s="7" t="s">
         <v>348</v>
       </c>
@@ -11366,7 +11358,7 @@
       <c r="AN122" s="15"/>
       <c r="AO122" s="15"/>
     </row>
-    <row r="123" hidden="1" spans="1:41">
+    <row r="123" spans="1:41">
       <c r="A123" s="7" t="s">
         <v>350</v>
       </c>
@@ -11423,7 +11415,7 @@
       <c r="AN123" s="15"/>
       <c r="AO123" s="15"/>
     </row>
-    <row r="124" hidden="1" spans="1:41">
+    <row r="124" spans="1:41">
       <c r="A124" s="7" t="s">
         <v>353</v>
       </c>
@@ -11480,7 +11472,7 @@
       <c r="AN124" s="15"/>
       <c r="AO124" s="15"/>
     </row>
-    <row r="125" hidden="1" spans="1:41">
+    <row r="125" spans="1:41">
       <c r="A125" s="7" t="s">
         <v>355</v>
       </c>
@@ -11537,7 +11529,7 @@
       <c r="AN125" s="15"/>
       <c r="AO125" s="15"/>
     </row>
-    <row r="126" hidden="1" spans="1:41">
+    <row r="126" spans="1:41">
       <c r="A126" s="7" t="s">
         <v>358</v>
       </c>
@@ -11596,7 +11588,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:41">
+    <row r="127" spans="1:41">
       <c r="A127" s="7" t="s">
         <v>361</v>
       </c>
@@ -11653,7 +11645,7 @@
       <c r="AN127" s="15"/>
       <c r="AO127" s="15"/>
     </row>
-    <row r="128" hidden="1" spans="1:41">
+    <row r="128" spans="1:41">
       <c r="A128" s="7" t="s">
         <v>364</v>
       </c>
@@ -11710,7 +11702,7 @@
       <c r="AN128" s="15"/>
       <c r="AO128" s="15"/>
     </row>
-    <row r="129" hidden="1" spans="1:41">
+    <row r="129" spans="1:41">
       <c r="A129" s="7" t="s">
         <v>366</v>
       </c>
@@ -11767,7 +11759,7 @@
       <c r="AN129" s="15"/>
       <c r="AO129" s="15"/>
     </row>
-    <row r="130" hidden="1" spans="1:41">
+    <row r="130" spans="1:41">
       <c r="A130" s="7" t="s">
         <v>369</v>
       </c>
@@ -11824,7 +11816,7 @@
       <c r="AN130" s="15"/>
       <c r="AO130" s="15"/>
     </row>
-    <row r="131" hidden="1" spans="1:41">
+    <row r="131" spans="1:41">
       <c r="A131" s="7" t="s">
         <v>372</v>
       </c>
@@ -11881,7 +11873,7 @@
       <c r="AN131" s="15"/>
       <c r="AO131" s="15"/>
     </row>
-    <row r="132" hidden="1" spans="1:41">
+    <row r="132" spans="1:41">
       <c r="A132" s="7" t="s">
         <v>375</v>
       </c>
@@ -11938,7 +11930,7 @@
       <c r="AN132" s="15"/>
       <c r="AO132" s="15"/>
     </row>
-    <row r="133" hidden="1" spans="1:41">
+    <row r="133" spans="1:41">
       <c r="A133" s="7" t="s">
         <v>377</v>
       </c>
@@ -11995,7 +11987,7 @@
       <c r="AN133" s="15"/>
       <c r="AO133" s="15"/>
     </row>
-    <row r="134" hidden="1" spans="1:41">
+    <row r="134" spans="1:41">
       <c r="A134" s="7" t="s">
         <v>379</v>
       </c>
@@ -12052,7 +12044,7 @@
       <c r="AN134" s="15"/>
       <c r="AO134" s="15"/>
     </row>
-    <row r="135" hidden="1" spans="1:41">
+    <row r="135" spans="1:41">
       <c r="A135" s="7" t="s">
         <v>381</v>
       </c>
@@ -12109,7 +12101,7 @@
       <c r="AN135" s="15"/>
       <c r="AO135" s="15"/>
     </row>
-    <row r="136" hidden="1" spans="1:41">
+    <row r="136" spans="1:41">
       <c r="A136" s="7" t="s">
         <v>383</v>
       </c>
@@ -12166,7 +12158,7 @@
       <c r="AN136" s="15"/>
       <c r="AO136" s="15"/>
     </row>
-    <row r="137" hidden="1" spans="1:41">
+    <row r="137" spans="1:41">
       <c r="A137" s="7" t="s">
         <v>385</v>
       </c>
@@ -12223,7 +12215,7 @@
       <c r="AN137" s="15"/>
       <c r="AO137" s="15"/>
     </row>
-    <row r="138" hidden="1" spans="1:41">
+    <row r="138" spans="1:41">
       <c r="A138" s="7" t="s">
         <v>388</v>
       </c>
@@ -12280,7 +12272,7 @@
       <c r="AN138" s="15"/>
       <c r="AO138" s="15"/>
     </row>
-    <row r="139" hidden="1" spans="1:41">
+    <row r="139" spans="1:41">
       <c r="A139" s="7" t="s">
         <v>391</v>
       </c>
@@ -12339,7 +12331,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:41">
+    <row r="140" spans="1:41">
       <c r="A140" s="7" t="s">
         <v>393</v>
       </c>
@@ -12396,7 +12388,7 @@
       <c r="AN140" s="15"/>
       <c r="AO140" s="15"/>
     </row>
-    <row r="141" hidden="1" spans="1:41">
+    <row r="141" spans="1:41">
       <c r="A141" s="7" t="s">
         <v>396</v>
       </c>
@@ -12453,7 +12445,7 @@
       <c r="AN141" s="15"/>
       <c r="AO141" s="15"/>
     </row>
-    <row r="142" hidden="1" spans="1:41">
+    <row r="142" spans="1:41">
       <c r="A142" s="7" t="s">
         <v>398</v>
       </c>
@@ -12510,7 +12502,7 @@
       <c r="AN142" s="15"/>
       <c r="AO142" s="15"/>
     </row>
-    <row r="143" hidden="1" spans="1:41">
+    <row r="143" spans="1:41">
       <c r="A143" s="7" t="s">
         <v>400</v>
       </c>
@@ -12567,7 +12559,7 @@
       <c r="AN143" s="15"/>
       <c r="AO143" s="15"/>
     </row>
-    <row r="144" hidden="1" spans="1:41">
+    <row r="144" spans="1:41">
       <c r="A144" s="7" t="s">
         <v>402</v>
       </c>
@@ -12624,7 +12616,7 @@
       <c r="AN144" s="15"/>
       <c r="AO144" s="15"/>
     </row>
-    <row r="145" hidden="1" spans="1:41">
+    <row r="145" spans="1:41">
       <c r="A145" s="7" t="s">
         <v>404</v>
       </c>
@@ -12681,7 +12673,7 @@
       <c r="AN145" s="15"/>
       <c r="AO145" s="15"/>
     </row>
-    <row r="146" hidden="1" spans="1:41">
+    <row r="146" spans="1:41">
       <c r="A146" s="7" t="s">
         <v>407</v>
       </c>
@@ -12738,7 +12730,7 @@
       <c r="AN146" s="15"/>
       <c r="AO146" s="15"/>
     </row>
-    <row r="147" hidden="1" spans="1:41">
+    <row r="147" spans="1:41">
       <c r="A147" s="7" t="s">
         <v>409</v>
       </c>
@@ -12795,7 +12787,7 @@
       <c r="AN147" s="15"/>
       <c r="AO147" s="15"/>
     </row>
-    <row r="148" hidden="1" spans="1:41">
+    <row r="148" spans="1:41">
       <c r="A148" s="7" t="s">
         <v>411</v>
       </c>
@@ -12852,7 +12844,7 @@
       <c r="AN148" s="15"/>
       <c r="AO148" s="15"/>
     </row>
-    <row r="149" hidden="1" spans="1:41">
+    <row r="149" spans="1:41">
       <c r="A149" s="7" t="s">
         <v>414</v>
       </c>
@@ -12909,7 +12901,7 @@
       <c r="AN149" s="15"/>
       <c r="AO149" s="15"/>
     </row>
-    <row r="150" hidden="1" spans="1:41">
+    <row r="150" spans="1:41">
       <c r="A150" s="7" t="s">
         <v>416</v>
       </c>
@@ -12966,7 +12958,7 @@
       <c r="AN150" s="15"/>
       <c r="AO150" s="15"/>
     </row>
-    <row r="151" hidden="1" spans="1:41">
+    <row r="151" spans="1:41">
       <c r="A151" s="7" t="s">
         <v>418</v>
       </c>
@@ -13023,7 +13015,7 @@
       <c r="AN151" s="15"/>
       <c r="AO151" s="15"/>
     </row>
-    <row r="152" hidden="1" spans="1:41">
+    <row r="152" spans="1:41">
       <c r="A152" s="7" t="s">
         <v>420</v>
       </c>
@@ -13080,7 +13072,7 @@
       <c r="AN152" s="15"/>
       <c r="AO152" s="15"/>
     </row>
-    <row r="153" hidden="1" spans="1:41">
+    <row r="153" spans="1:41">
       <c r="A153" s="7" t="s">
         <v>422</v>
       </c>
@@ -13137,7 +13129,7 @@
       <c r="AN153" s="15"/>
       <c r="AO153" s="15"/>
     </row>
-    <row r="154" hidden="1" spans="1:41">
+    <row r="154" spans="1:41">
       <c r="A154" s="7" t="s">
         <v>425</v>
       </c>
@@ -13194,7 +13186,7 @@
       <c r="AN154" s="15"/>
       <c r="AO154" s="15"/>
     </row>
-    <row r="155" hidden="1" spans="1:41">
+    <row r="155" spans="1:41">
       <c r="A155" s="7" t="s">
         <v>427</v>
       </c>
@@ -13251,7 +13243,7 @@
       <c r="AN155" s="15"/>
       <c r="AO155" s="15"/>
     </row>
-    <row r="156" hidden="1" spans="1:41">
+    <row r="156" spans="1:41">
       <c r="A156" s="7" t="s">
         <v>429</v>
       </c>
@@ -13308,7 +13300,7 @@
       <c r="AN156" s="15"/>
       <c r="AO156" s="15"/>
     </row>
-    <row r="157" hidden="1" spans="1:41">
+    <row r="157" spans="1:41">
       <c r="A157" s="7" t="s">
         <v>431</v>
       </c>
@@ -13365,7 +13357,7 @@
       <c r="AN157" s="15"/>
       <c r="AO157" s="15"/>
     </row>
-    <row r="158" hidden="1" spans="1:41">
+    <row r="158" spans="1:41">
       <c r="A158" s="7" t="s">
         <v>433</v>
       </c>
@@ -13422,7 +13414,7 @@
       <c r="AN158" s="15"/>
       <c r="AO158" s="15"/>
     </row>
-    <row r="159" hidden="1" spans="1:41">
+    <row r="159" spans="1:41">
       <c r="A159" s="7" t="s">
         <v>435</v>
       </c>
@@ -13479,7 +13471,7 @@
       <c r="AN159" s="15"/>
       <c r="AO159" s="15"/>
     </row>
-    <row r="160" hidden="1" spans="1:41">
+    <row r="160" spans="1:41">
       <c r="A160" s="7" t="s">
         <v>437</v>
       </c>
@@ -13536,7 +13528,7 @@
       <c r="AN160" s="15"/>
       <c r="AO160" s="15"/>
     </row>
-    <row r="161" hidden="1" spans="1:41">
+    <row r="161" spans="1:41">
       <c r="A161" s="7" t="s">
         <v>440</v>
       </c>
@@ -13593,7 +13585,7 @@
       <c r="AN161" s="15"/>
       <c r="AO161" s="15"/>
     </row>
-    <row r="162" hidden="1" spans="1:41">
+    <row r="162" spans="1:41">
       <c r="A162" s="7" t="s">
         <v>442</v>
       </c>
@@ -13650,7 +13642,7 @@
       <c r="AN162" s="15"/>
       <c r="AO162" s="15"/>
     </row>
-    <row r="163" hidden="1" spans="1:41">
+    <row r="163" spans="1:41">
       <c r="A163" s="7" t="s">
         <v>444</v>
       </c>
@@ -13707,7 +13699,7 @@
       <c r="AN163" s="15"/>
       <c r="AO163" s="15"/>
     </row>
-    <row r="164" hidden="1" spans="1:41">
+    <row r="164" spans="1:41">
       <c r="A164" s="7" t="s">
         <v>446</v>
       </c>
@@ -13764,7 +13756,7 @@
       <c r="AN164" s="15"/>
       <c r="AO164" s="15"/>
     </row>
-    <row r="165" hidden="1" spans="1:41">
+    <row r="165" spans="1:41">
       <c r="A165" s="7" t="s">
         <v>448</v>
       </c>
@@ -13821,7 +13813,7 @@
       <c r="AN165" s="15"/>
       <c r="AO165" s="15"/>
     </row>
-    <row r="166" hidden="1" spans="1:41">
+    <row r="166" spans="1:41">
       <c r="A166" s="7" t="s">
         <v>450</v>
       </c>
@@ -13878,7 +13870,7 @@
       <c r="AN166" s="15"/>
       <c r="AO166" s="15"/>
     </row>
-    <row r="167" hidden="1" spans="1:41">
+    <row r="167" spans="1:41">
       <c r="A167" s="7" t="s">
         <v>453</v>
       </c>
@@ -13935,7 +13927,7 @@
       <c r="AN167" s="15"/>
       <c r="AO167" s="15"/>
     </row>
-    <row r="168" hidden="1" spans="1:41">
+    <row r="168" spans="1:41">
       <c r="A168" s="7" t="s">
         <v>455</v>
       </c>
@@ -13994,7 +13986,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:41">
+    <row r="169" spans="1:41">
       <c r="A169" s="7" t="s">
         <v>457</v>
       </c>
@@ -14051,7 +14043,7 @@
       <c r="AN169" s="15"/>
       <c r="AO169" s="15"/>
     </row>
-    <row r="170" hidden="1" spans="1:41">
+    <row r="170" spans="1:41">
       <c r="A170" s="7" t="s">
         <v>459</v>
       </c>
@@ -14108,7 +14100,7 @@
       <c r="AN170" s="15"/>
       <c r="AO170" s="15"/>
     </row>
-    <row r="171" hidden="1" spans="1:41">
+    <row r="171" spans="1:41">
       <c r="A171" s="7" t="s">
         <v>461</v>
       </c>
@@ -14165,7 +14157,7 @@
       <c r="AN171" s="15"/>
       <c r="AO171" s="15"/>
     </row>
-    <row r="172" hidden="1" spans="1:41">
+    <row r="172" spans="1:41">
       <c r="A172" s="7" t="s">
         <v>463</v>
       </c>
@@ -14222,7 +14214,7 @@
       <c r="AN172" s="15"/>
       <c r="AO172" s="15"/>
     </row>
-    <row r="173" hidden="1" spans="1:41">
+    <row r="173" spans="1:41">
       <c r="A173" s="7" t="s">
         <v>465</v>
       </c>
@@ -14279,7 +14271,7 @@
       <c r="AN173" s="15"/>
       <c r="AO173" s="15"/>
     </row>
-    <row r="174" hidden="1" spans="1:41">
+    <row r="174" spans="1:41">
       <c r="A174" s="7" t="s">
         <v>467</v>
       </c>
@@ -14336,7 +14328,7 @@
       <c r="AN174" s="15"/>
       <c r="AO174" s="15"/>
     </row>
-    <row r="175" hidden="1" spans="1:41">
+    <row r="175" spans="1:41">
       <c r="A175" s="7" t="s">
         <v>469</v>
       </c>
@@ -14393,7 +14385,7 @@
       <c r="AN175" s="15"/>
       <c r="AO175" s="15"/>
     </row>
-    <row r="176" hidden="1" spans="1:41">
+    <row r="176" spans="1:41">
       <c r="A176" s="7" t="s">
         <v>472</v>
       </c>
@@ -14450,7 +14442,7 @@
       <c r="AN176" s="15"/>
       <c r="AO176" s="15"/>
     </row>
-    <row r="177" hidden="1" spans="1:41">
+    <row r="177" spans="1:41">
       <c r="A177" s="7" t="s">
         <v>475</v>
       </c>
@@ -14507,7 +14499,7 @@
       <c r="AN177" s="15"/>
       <c r="AO177" s="15"/>
     </row>
-    <row r="178" hidden="1" spans="1:41">
+    <row r="178" spans="1:41">
       <c r="A178" s="7" t="s">
         <v>477</v>
       </c>
@@ -14564,7 +14556,7 @@
       <c r="AN178" s="15"/>
       <c r="AO178" s="15"/>
     </row>
-    <row r="179" hidden="1" spans="1:41">
+    <row r="179" spans="1:41">
       <c r="A179" s="7" t="s">
         <v>479</v>
       </c>
@@ -14621,7 +14613,7 @@
       <c r="AN179" s="15"/>
       <c r="AO179" s="15"/>
     </row>
-    <row r="180" hidden="1" spans="1:41">
+    <row r="180" spans="1:41">
       <c r="A180" s="7" t="s">
         <v>481</v>
       </c>
@@ -14678,7 +14670,7 @@
       <c r="AN180" s="15"/>
       <c r="AO180" s="15"/>
     </row>
-    <row r="181" hidden="1" spans="1:41">
+    <row r="181" spans="1:41">
       <c r="A181" s="7" t="s">
         <v>484</v>
       </c>
@@ -14735,7 +14727,7 @@
       <c r="AN181" s="15"/>
       <c r="AO181" s="15"/>
     </row>
-    <row r="182" hidden="1" spans="1:41">
+    <row r="182" spans="1:41">
       <c r="A182" s="7" t="s">
         <v>486</v>
       </c>
@@ -14792,7 +14784,7 @@
       <c r="AN182" s="15"/>
       <c r="AO182" s="15"/>
     </row>
-    <row r="183" hidden="1" spans="1:41">
+    <row r="183" spans="1:41">
       <c r="A183" s="7" t="s">
         <v>488</v>
       </c>
@@ -14849,7 +14841,7 @@
       <c r="AN183" s="15"/>
       <c r="AO183" s="15"/>
     </row>
-    <row r="184" hidden="1" spans="1:41">
+    <row r="184" spans="1:41">
       <c r="A184" s="7" t="s">
         <v>490</v>
       </c>
@@ -14906,7 +14898,7 @@
       <c r="AN184" s="15"/>
       <c r="AO184" s="15"/>
     </row>
-    <row r="185" hidden="1" spans="1:41">
+    <row r="185" spans="1:41">
       <c r="A185" s="7" t="s">
         <v>492</v>
       </c>
@@ -14963,7 +14955,7 @@
       <c r="AN185" s="15"/>
       <c r="AO185" s="15"/>
     </row>
-    <row r="186" hidden="1" spans="1:41">
+    <row r="186" spans="1:41">
       <c r="A186" s="7" t="s">
         <v>495</v>
       </c>
@@ -15063,7 +15055,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:41">
+    <row r="187" spans="1:41">
       <c r="A187" s="7" t="s">
         <v>497</v>
       </c>
@@ -15120,7 +15112,7 @@
       <c r="AN187" s="15"/>
       <c r="AO187" s="15"/>
     </row>
-    <row r="188" hidden="1" spans="1:41">
+    <row r="188" spans="1:41">
       <c r="A188" s="7" t="s">
         <v>499</v>
       </c>
@@ -15177,7 +15169,7 @@
       <c r="AN188" s="15"/>
       <c r="AO188" s="15"/>
     </row>
-    <row r="189" hidden="1" spans="1:41">
+    <row r="189" spans="1:41">
       <c r="A189" s="7" t="s">
         <v>502</v>
       </c>
@@ -15234,7 +15226,7 @@
       <c r="AN189" s="15"/>
       <c r="AO189" s="15"/>
     </row>
-    <row r="190" hidden="1" spans="1:41">
+    <row r="190" spans="1:41">
       <c r="A190" s="7" t="s">
         <v>504</v>
       </c>
@@ -15291,7 +15283,7 @@
       <c r="AN190" s="15"/>
       <c r="AO190" s="15"/>
     </row>
-    <row r="191" hidden="1" spans="1:41">
+    <row r="191" spans="1:41">
       <c r="A191" s="7" t="s">
         <v>507</v>
       </c>
@@ -15348,7 +15340,7 @@
       <c r="AN191" s="15"/>
       <c r="AO191" s="15"/>
     </row>
-    <row r="192" hidden="1" spans="1:41">
+    <row r="192" spans="1:41">
       <c r="A192" s="7" t="s">
         <v>509</v>
       </c>
@@ -15407,7 +15399,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:41">
+    <row r="193" spans="1:41">
       <c r="A193" s="7" t="s">
         <v>511</v>
       </c>
@@ -15464,7 +15456,7 @@
       <c r="AN193" s="15"/>
       <c r="AO193" s="15"/>
     </row>
-    <row r="194" hidden="1" spans="1:41">
+    <row r="194" spans="1:41">
       <c r="A194" s="7" t="s">
         <v>513</v>
       </c>
@@ -15521,7 +15513,7 @@
       <c r="AN194" s="15"/>
       <c r="AO194" s="15"/>
     </row>
-    <row r="195" hidden="1" spans="1:41">
+    <row r="195" spans="1:41">
       <c r="A195" s="7" t="s">
         <v>515</v>
       </c>
@@ -15578,7 +15570,7 @@
       <c r="AN195" s="15"/>
       <c r="AO195" s="15"/>
     </row>
-    <row r="196" hidden="1" spans="1:41">
+    <row r="196" spans="1:41">
       <c r="A196" s="7" t="s">
         <v>517</v>
       </c>
@@ -15635,7 +15627,7 @@
       <c r="AN196" s="15"/>
       <c r="AO196" s="15"/>
     </row>
-    <row r="197" hidden="1" spans="1:41">
+    <row r="197" spans="1:41">
       <c r="A197" s="7" t="s">
         <v>519</v>
       </c>
@@ -15692,7 +15684,7 @@
       <c r="AN197" s="15"/>
       <c r="AO197" s="15"/>
     </row>
-    <row r="198" hidden="1" spans="1:41">
+    <row r="198" spans="1:41">
       <c r="A198" s="7" t="s">
         <v>522</v>
       </c>
@@ -15749,7 +15741,7 @@
       <c r="AN198" s="15"/>
       <c r="AO198" s="15"/>
     </row>
-    <row r="199" hidden="1" spans="1:41">
+    <row r="199" spans="1:41">
       <c r="A199" s="7" t="s">
         <v>524</v>
       </c>
@@ -15909,7 +15901,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:41">
+    <row r="201" spans="1:41">
       <c r="A201" s="7" t="s">
         <v>530</v>
       </c>
@@ -15966,7 +15958,7 @@
       <c r="AN201" s="15"/>
       <c r="AO201" s="15"/>
     </row>
-    <row r="202" hidden="1" spans="1:41">
+    <row r="202" spans="1:41">
       <c r="A202" s="7" t="s">
         <v>533</v>
       </c>
@@ -16023,7 +16015,7 @@
       <c r="AN202" s="15"/>
       <c r="AO202" s="15"/>
     </row>
-    <row r="203" hidden="1" spans="1:41">
+    <row r="203" spans="1:41">
       <c r="A203" s="7" t="s">
         <v>535</v>
       </c>
@@ -16080,7 +16072,7 @@
       <c r="AN203" s="15"/>
       <c r="AO203" s="15"/>
     </row>
-    <row r="204" hidden="1" spans="1:41">
+    <row r="204" spans="1:41">
       <c r="A204" s="7" t="s">
         <v>537</v>
       </c>
@@ -16137,7 +16129,7 @@
       <c r="AN204" s="15"/>
       <c r="AO204" s="15"/>
     </row>
-    <row r="205" hidden="1" spans="1:41">
+    <row r="205" spans="1:41">
       <c r="A205" s="7" t="s">
         <v>540</v>
       </c>
@@ -16194,7 +16186,7 @@
       <c r="AN205" s="15"/>
       <c r="AO205" s="15"/>
     </row>
-    <row r="206" hidden="1" spans="1:41">
+    <row r="206" spans="1:41">
       <c r="A206" s="7" t="s">
         <v>542</v>
       </c>
@@ -16251,7 +16243,7 @@
       <c r="AN206" s="15"/>
       <c r="AO206" s="15"/>
     </row>
-    <row r="207" hidden="1" spans="1:41">
+    <row r="207" spans="1:41">
       <c r="A207" s="7" t="s">
         <v>544</v>
       </c>
@@ -16308,7 +16300,7 @@
       <c r="AN207" s="15"/>
       <c r="AO207" s="15"/>
     </row>
-    <row r="208" hidden="1" spans="1:41">
+    <row r="208" spans="1:41">
       <c r="A208" s="7" t="s">
         <v>546</v>
       </c>
@@ -16365,7 +16357,7 @@
       <c r="AN208" s="15"/>
       <c r="AO208" s="15"/>
     </row>
-    <row r="209" hidden="1" spans="1:41">
+    <row r="209" spans="1:41">
       <c r="A209" s="7" t="s">
         <v>548</v>
       </c>
@@ -16422,7 +16414,7 @@
       <c r="AN209" s="15"/>
       <c r="AO209" s="15"/>
     </row>
-    <row r="210" hidden="1" spans="1:41">
+    <row r="210" spans="1:41">
       <c r="A210" s="7" t="s">
         <v>551</v>
       </c>
@@ -16479,7 +16471,7 @@
       <c r="AN210" s="15"/>
       <c r="AO210" s="15"/>
     </row>
-    <row r="211" hidden="1" spans="1:41">
+    <row r="211" spans="1:41">
       <c r="A211" s="7" t="s">
         <v>553</v>
       </c>
@@ -16536,7 +16528,7 @@
       <c r="AN211" s="15"/>
       <c r="AO211" s="15"/>
     </row>
-    <row r="212" hidden="1" spans="1:41">
+    <row r="212" spans="1:41">
       <c r="A212" s="7" t="s">
         <v>555</v>
       </c>
@@ -16593,7 +16585,7 @@
       <c r="AN212" s="15"/>
       <c r="AO212" s="15"/>
     </row>
-    <row r="213" hidden="1" spans="1:41">
+    <row r="213" spans="1:41">
       <c r="A213" s="7" t="s">
         <v>557</v>
       </c>
@@ -16650,7 +16642,7 @@
       <c r="AN213" s="15"/>
       <c r="AO213" s="15"/>
     </row>
-    <row r="214" hidden="1" spans="1:41">
+    <row r="214" spans="1:41">
       <c r="A214" s="7" t="s">
         <v>559</v>
       </c>
@@ -16709,7 +16701,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:41">
+    <row r="215" spans="1:41">
       <c r="A215" s="7" t="s">
         <v>561</v>
       </c>
@@ -16766,7 +16758,7 @@
       <c r="AN215" s="15"/>
       <c r="AO215" s="15"/>
     </row>
-    <row r="216" hidden="1" spans="1:41">
+    <row r="216" spans="1:41">
       <c r="A216" s="7" t="s">
         <v>564</v>
       </c>
@@ -16823,7 +16815,7 @@
       <c r="AN216" s="15"/>
       <c r="AO216" s="15"/>
     </row>
-    <row r="217" hidden="1" spans="1:41">
+    <row r="217" spans="1:41">
       <c r="A217" s="7" t="s">
         <v>566</v>
       </c>
@@ -16880,7 +16872,7 @@
       <c r="AN217" s="15"/>
       <c r="AO217" s="15"/>
     </row>
-    <row r="218" hidden="1" spans="1:41">
+    <row r="218" spans="1:41">
       <c r="A218" s="7" t="s">
         <v>568</v>
       </c>
@@ -16937,7 +16929,7 @@
       <c r="AN218" s="15"/>
       <c r="AO218" s="15"/>
     </row>
-    <row r="219" hidden="1" spans="1:41">
+    <row r="219" spans="1:41">
       <c r="A219" s="7" t="s">
         <v>571</v>
       </c>
@@ -16996,7 +16988,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:41">
+    <row r="220" spans="1:41">
       <c r="A220" s="7" t="s">
         <v>573</v>
       </c>
@@ -17053,7 +17045,7 @@
       <c r="AN220" s="15"/>
       <c r="AO220" s="15"/>
     </row>
-    <row r="221" hidden="1" spans="1:41">
+    <row r="221" spans="1:41">
       <c r="A221" s="7" t="s">
         <v>576</v>
       </c>
@@ -17110,7 +17102,7 @@
       <c r="AN221" s="15"/>
       <c r="AO221" s="15"/>
     </row>
-    <row r="222" hidden="1" spans="1:41">
+    <row r="222" spans="1:41">
       <c r="A222" s="7" t="s">
         <v>578</v>
       </c>
@@ -17167,7 +17159,7 @@
       <c r="AN222" s="15"/>
       <c r="AO222" s="15"/>
     </row>
-    <row r="223" hidden="1" spans="1:41">
+    <row r="223" spans="1:41">
       <c r="A223" s="7" t="s">
         <v>580</v>
       </c>
@@ -17224,7 +17216,7 @@
       <c r="AN223" s="15"/>
       <c r="AO223" s="15"/>
     </row>
-    <row r="224" hidden="1" spans="1:41">
+    <row r="224" spans="1:41">
       <c r="A224" s="7" t="s">
         <v>582</v>
       </c>
@@ -17281,7 +17273,7 @@
       <c r="AN224" s="15"/>
       <c r="AO224" s="15"/>
     </row>
-    <row r="225" hidden="1" spans="1:41">
+    <row r="225" spans="1:41">
       <c r="A225" s="7" t="s">
         <v>584</v>
       </c>
@@ -17338,7 +17330,7 @@
       <c r="AN225" s="15"/>
       <c r="AO225" s="15"/>
     </row>
-    <row r="226" hidden="1" spans="1:41">
+    <row r="226" spans="1:41">
       <c r="A226" s="7" t="s">
         <v>586</v>
       </c>
@@ -17395,7 +17387,7 @@
       <c r="AN226" s="15"/>
       <c r="AO226" s="15"/>
     </row>
-    <row r="227" hidden="1" spans="1:41">
+    <row r="227" spans="1:41">
       <c r="A227" s="7" t="s">
         <v>588</v>
       </c>
@@ -17452,7 +17444,7 @@
       <c r="AN227" s="15"/>
       <c r="AO227" s="15"/>
     </row>
-    <row r="228" hidden="1" spans="1:41">
+    <row r="228" spans="1:41">
       <c r="A228" s="7" t="s">
         <v>590</v>
       </c>
@@ -17509,7 +17501,7 @@
       <c r="AN228" s="15"/>
       <c r="AO228" s="15"/>
     </row>
-    <row r="229" hidden="1" spans="1:41">
+    <row r="229" spans="1:41">
       <c r="A229" s="7" t="s">
         <v>592</v>
       </c>
@@ -17566,7 +17558,7 @@
       <c r="AN229" s="15"/>
       <c r="AO229" s="15"/>
     </row>
-    <row r="230" hidden="1" spans="1:41">
+    <row r="230" spans="1:41">
       <c r="A230" s="7" t="s">
         <v>595</v>
       </c>
@@ -17623,7 +17615,7 @@
       <c r="AN230" s="15"/>
       <c r="AO230" s="15"/>
     </row>
-    <row r="231" hidden="1" spans="1:41">
+    <row r="231" spans="1:41">
       <c r="A231" s="7" t="s">
         <v>597</v>
       </c>
@@ -17680,7 +17672,7 @@
       <c r="AN231" s="15"/>
       <c r="AO231" s="15"/>
     </row>
-    <row r="232" hidden="1" spans="1:41">
+    <row r="232" spans="1:41">
       <c r="A232" s="7" t="s">
         <v>600</v>
       </c>
@@ -17737,7 +17729,7 @@
       <c r="AN232" s="15"/>
       <c r="AO232" s="15"/>
     </row>
-    <row r="233" hidden="1" spans="1:41">
+    <row r="233" spans="1:41">
       <c r="A233" s="7" t="s">
         <v>602</v>
       </c>
@@ -17794,7 +17786,7 @@
       <c r="AN233" s="15"/>
       <c r="AO233" s="15"/>
     </row>
-    <row r="234" hidden="1" spans="1:41">
+    <row r="234" spans="1:41">
       <c r="A234" s="7" t="s">
         <v>604</v>
       </c>
@@ -17937,7 +17929,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:41">
+    <row r="236" spans="1:41">
       <c r="A236" s="7" t="s">
         <v>610</v>
       </c>
@@ -17994,7 +17986,7 @@
       <c r="AN236" s="15"/>
       <c r="AO236" s="15"/>
     </row>
-    <row r="237" hidden="1" spans="1:41">
+    <row r="237" spans="1:41">
       <c r="A237" s="7" t="s">
         <v>613</v>
       </c>
@@ -18051,7 +18043,7 @@
       <c r="AN237" s="15"/>
       <c r="AO237" s="15"/>
     </row>
-    <row r="238" hidden="1" spans="1:41">
+    <row r="238" spans="1:41">
       <c r="A238" s="7" t="s">
         <v>615</v>
       </c>
@@ -18108,7 +18100,7 @@
       <c r="AN238" s="15"/>
       <c r="AO238" s="15"/>
     </row>
-    <row r="239" hidden="1" spans="1:41">
+    <row r="239" spans="1:41">
       <c r="A239" s="7" t="s">
         <v>617</v>
       </c>
@@ -18165,7 +18157,7 @@
       <c r="AN239" s="15"/>
       <c r="AO239" s="15"/>
     </row>
-    <row r="240" hidden="1" spans="1:41">
+    <row r="240" spans="1:41">
       <c r="A240" s="7" t="s">
         <v>619</v>
       </c>
@@ -18222,7 +18214,7 @@
       <c r="AN240" s="15"/>
       <c r="AO240" s="15"/>
     </row>
-    <row r="241" hidden="1" spans="1:41">
+    <row r="241" spans="1:41">
       <c r="A241" s="7" t="s">
         <v>622</v>
       </c>
@@ -18279,7 +18271,7 @@
       <c r="AN241" s="15"/>
       <c r="AO241" s="15"/>
     </row>
-    <row r="242" hidden="1" spans="1:41">
+    <row r="242" spans="1:41">
       <c r="A242" s="7" t="s">
         <v>624</v>
       </c>
@@ -18336,7 +18328,7 @@
       <c r="AN242" s="15"/>
       <c r="AO242" s="15"/>
     </row>
-    <row r="243" hidden="1" spans="1:41">
+    <row r="243" spans="1:41">
       <c r="A243" s="7" t="s">
         <v>627</v>
       </c>
@@ -18393,7 +18385,7 @@
       <c r="AN243" s="15"/>
       <c r="AO243" s="15"/>
     </row>
-    <row r="244" hidden="1" spans="1:41">
+    <row r="244" spans="1:41">
       <c r="A244" s="7" t="s">
         <v>629</v>
       </c>
@@ -18450,7 +18442,7 @@
       <c r="AN244" s="15"/>
       <c r="AO244" s="15"/>
     </row>
-    <row r="245" hidden="1" spans="1:41">
+    <row r="245" spans="1:41">
       <c r="A245" s="7" t="s">
         <v>631</v>
       </c>
@@ -18507,7 +18499,7 @@
       <c r="AN245" s="15"/>
       <c r="AO245" s="15"/>
     </row>
-    <row r="246" hidden="1" spans="1:41">
+    <row r="246" spans="1:41">
       <c r="A246" s="7" t="s">
         <v>634</v>
       </c>
@@ -18564,7 +18556,7 @@
       <c r="AN246" s="15"/>
       <c r="AO246" s="15"/>
     </row>
-    <row r="247" hidden="1" spans="1:41">
+    <row r="247" spans="1:41">
       <c r="A247" s="7" t="s">
         <v>637</v>
       </c>
@@ -18621,7 +18613,7 @@
       <c r="AN247" s="15"/>
       <c r="AO247" s="15"/>
     </row>
-    <row r="248" hidden="1" spans="1:41">
+    <row r="248" spans="1:41">
       <c r="A248" s="7" t="s">
         <v>639</v>
       </c>
@@ -18678,7 +18670,7 @@
       <c r="AN248" s="15"/>
       <c r="AO248" s="15"/>
     </row>
-    <row r="249" hidden="1" spans="1:41">
+    <row r="249" spans="1:41">
       <c r="A249" s="7" t="s">
         <v>641</v>
       </c>
@@ -18735,7 +18727,7 @@
       <c r="AN249" s="15"/>
       <c r="AO249" s="15"/>
     </row>
-    <row r="250" hidden="1" spans="1:41">
+    <row r="250" spans="1:41">
       <c r="A250" s="7" t="s">
         <v>643</v>
       </c>
@@ -18792,7 +18784,7 @@
       <c r="AN250" s="15"/>
       <c r="AO250" s="15"/>
     </row>
-    <row r="251" hidden="1" spans="1:41">
+    <row r="251" spans="1:41">
       <c r="A251" s="7" t="s">
         <v>645</v>
       </c>
@@ -18849,7 +18841,7 @@
       <c r="AN251" s="15"/>
       <c r="AO251" s="15"/>
     </row>
-    <row r="252" hidden="1" spans="1:41">
+    <row r="252" spans="1:41">
       <c r="A252" s="7" t="s">
         <v>648</v>
       </c>
@@ -18906,7 +18898,7 @@
       <c r="AN252" s="15"/>
       <c r="AO252" s="15"/>
     </row>
-    <row r="253" hidden="1" spans="1:41">
+    <row r="253" spans="1:41">
       <c r="A253" s="7" t="s">
         <v>651</v>
       </c>
@@ -18963,7 +18955,7 @@
       <c r="AN253" s="15"/>
       <c r="AO253" s="15"/>
     </row>
-    <row r="254" hidden="1" spans="1:41">
+    <row r="254" spans="1:41">
       <c r="A254" s="7" t="s">
         <v>653</v>
       </c>
@@ -19020,7 +19012,7 @@
       <c r="AN254" s="15"/>
       <c r="AO254" s="15"/>
     </row>
-    <row r="255" hidden="1" spans="1:41">
+    <row r="255" spans="1:41">
       <c r="A255" s="7" t="s">
         <v>655</v>
       </c>
@@ -19077,7 +19069,7 @@
       <c r="AN255" s="15"/>
       <c r="AO255" s="15"/>
     </row>
-    <row r="256" hidden="1" spans="1:41">
+    <row r="256" spans="1:41">
       <c r="A256" s="7" t="s">
         <v>657</v>
       </c>
@@ -19134,7 +19126,7 @@
       <c r="AN256" s="15"/>
       <c r="AO256" s="15"/>
     </row>
-    <row r="257" hidden="1" spans="1:41">
+    <row r="257" spans="1:41">
       <c r="A257" s="7" t="s">
         <v>659</v>
       </c>
@@ -19191,7 +19183,7 @@
       <c r="AN257" s="15"/>
       <c r="AO257" s="15"/>
     </row>
-    <row r="258" hidden="1" spans="1:41">
+    <row r="258" spans="1:41">
       <c r="A258" s="7" t="s">
         <v>661</v>
       </c>
@@ -19248,7 +19240,7 @@
       <c r="AN258" s="15"/>
       <c r="AO258" s="15"/>
     </row>
-    <row r="259" hidden="1" spans="1:41">
+    <row r="259" spans="1:41">
       <c r="A259" s="7" t="s">
         <v>663</v>
       </c>
@@ -19305,7 +19297,7 @@
       <c r="AN259" s="15"/>
       <c r="AO259" s="15"/>
     </row>
-    <row r="260" hidden="1" spans="1:41">
+    <row r="260" spans="1:41">
       <c r="A260" s="7" t="s">
         <v>666</v>
       </c>
@@ -19362,7 +19354,7 @@
       <c r="AN260" s="15"/>
       <c r="AO260" s="15"/>
     </row>
-    <row r="261" hidden="1" spans="1:41">
+    <row r="261" spans="1:41">
       <c r="A261" s="7" t="s">
         <v>669</v>
       </c>
@@ -19419,7 +19411,7 @@
       <c r="AN261" s="15"/>
       <c r="AO261" s="15"/>
     </row>
-    <row r="262" hidden="1" spans="1:41">
+    <row r="262" spans="1:41">
       <c r="A262" s="7" t="s">
         <v>671</v>
       </c>
@@ -19476,7 +19468,7 @@
       <c r="AN262" s="15"/>
       <c r="AO262" s="15"/>
     </row>
-    <row r="263" hidden="1" spans="1:41">
+    <row r="263" spans="1:41">
       <c r="A263" s="7" t="s">
         <v>673</v>
       </c>
@@ -19640,7 +19632,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:41">
+    <row r="265" spans="1:41">
       <c r="A265" s="7" t="s">
         <v>678</v>
       </c>
@@ -19697,7 +19689,7 @@
       <c r="AN265" s="15"/>
       <c r="AO265" s="15"/>
     </row>
-    <row r="266" hidden="1" spans="1:41">
+    <row r="266" spans="1:41">
       <c r="A266" s="7" t="s">
         <v>680</v>
       </c>
@@ -19754,7 +19746,7 @@
       <c r="AN266" s="15"/>
       <c r="AO266" s="15"/>
     </row>
-    <row r="267" hidden="1" spans="1:41">
+    <row r="267" spans="1:41">
       <c r="A267" s="7" t="s">
         <v>683</v>
       </c>
@@ -19811,7 +19803,7 @@
       <c r="AN267" s="15"/>
       <c r="AO267" s="15"/>
     </row>
-    <row r="268" hidden="1" spans="1:41">
+    <row r="268" spans="1:41">
       <c r="A268" s="7" t="s">
         <v>685</v>
       </c>
@@ -19868,7 +19860,7 @@
       <c r="AN268" s="15"/>
       <c r="AO268" s="15"/>
     </row>
-    <row r="269" hidden="1" spans="1:41">
+    <row r="269" spans="1:41">
       <c r="A269" s="7" t="s">
         <v>687</v>
       </c>
@@ -19925,7 +19917,7 @@
       <c r="AN269" s="15"/>
       <c r="AO269" s="15"/>
     </row>
-    <row r="270" hidden="1" spans="1:41">
+    <row r="270" spans="1:41">
       <c r="A270" s="7" t="s">
         <v>689</v>
       </c>
@@ -19982,7 +19974,7 @@
       <c r="AN270" s="15"/>
       <c r="AO270" s="15"/>
     </row>
-    <row r="271" hidden="1" spans="1:41">
+    <row r="271" spans="1:41">
       <c r="A271" s="7" t="s">
         <v>691</v>
       </c>
@@ -20041,7 +20033,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:41">
+    <row r="272" spans="1:41">
       <c r="A272" s="7" t="s">
         <v>693</v>
       </c>
@@ -20098,7 +20090,7 @@
       <c r="AN272" s="15"/>
       <c r="AO272" s="15"/>
     </row>
-    <row r="273" hidden="1" spans="1:41">
+    <row r="273" spans="1:41">
       <c r="A273" s="7" t="s">
         <v>696</v>
       </c>
@@ -20155,7 +20147,7 @@
       <c r="AN273" s="15"/>
       <c r="AO273" s="15"/>
     </row>
-    <row r="274" hidden="1" spans="1:41">
+    <row r="274" spans="1:41">
       <c r="A274" s="7" t="s">
         <v>699</v>
       </c>
@@ -20234,7 +20226,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:41">
+    <row r="275" spans="1:41">
       <c r="A275" s="7" t="s">
         <v>702</v>
       </c>
@@ -20291,7 +20283,7 @@
       <c r="AN275" s="15"/>
       <c r="AO275" s="15"/>
     </row>
-    <row r="276" hidden="1" spans="1:41">
+    <row r="276" spans="1:41">
       <c r="A276" s="7" t="s">
         <v>704</v>
       </c>
@@ -20348,7 +20340,7 @@
       <c r="AN276" s="15"/>
       <c r="AO276" s="15"/>
     </row>
-    <row r="277" hidden="1" spans="1:41">
+    <row r="277" spans="1:41">
       <c r="A277" s="7" t="s">
         <v>706</v>
       </c>
@@ -20405,7 +20397,7 @@
       <c r="AN277" s="15"/>
       <c r="AO277" s="15"/>
     </row>
-    <row r="278" hidden="1" spans="1:41">
+    <row r="278" spans="1:41">
       <c r="A278" s="7" t="s">
         <v>708</v>
       </c>
@@ -20462,7 +20454,7 @@
       <c r="AN278" s="15"/>
       <c r="AO278" s="15"/>
     </row>
-    <row r="279" hidden="1" spans="1:41">
+    <row r="279" spans="1:41">
       <c r="A279" s="7" t="s">
         <v>710</v>
       </c>
@@ -20519,7 +20511,7 @@
       <c r="AN279" s="15"/>
       <c r="AO279" s="15"/>
     </row>
-    <row r="280" hidden="1" spans="1:41">
+    <row r="280" spans="1:41">
       <c r="A280" s="7" t="s">
         <v>712</v>
       </c>
@@ -20578,7 +20570,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:41">
+    <row r="281" spans="1:41">
       <c r="A281" s="7" t="s">
         <v>714</v>
       </c>
@@ -20635,7 +20627,7 @@
       <c r="AN281" s="15"/>
       <c r="AO281" s="15"/>
     </row>
-    <row r="282" hidden="1" spans="1:41">
+    <row r="282" spans="1:41">
       <c r="A282" s="7" t="s">
         <v>716</v>
       </c>
@@ -20692,7 +20684,7 @@
       <c r="AN282" s="15"/>
       <c r="AO282" s="15"/>
     </row>
-    <row r="283" hidden="1" spans="1:41">
+    <row r="283" spans="1:41">
       <c r="A283" s="7" t="s">
         <v>718</v>
       </c>
@@ -20749,7 +20741,7 @@
       <c r="AN283" s="15"/>
       <c r="AO283" s="15"/>
     </row>
-    <row r="284" hidden="1" spans="1:41">
+    <row r="284" spans="1:41">
       <c r="A284" s="7" t="s">
         <v>720</v>
       </c>
@@ -20806,7 +20798,7 @@
       <c r="AN284" s="15"/>
       <c r="AO284" s="15"/>
     </row>
-    <row r="285" hidden="1" spans="1:41">
+    <row r="285" spans="1:41">
       <c r="A285" s="7" t="s">
         <v>722</v>
       </c>
@@ -20863,7 +20855,7 @@
       <c r="AN285" s="15"/>
       <c r="AO285" s="15"/>
     </row>
-    <row r="286" hidden="1" spans="1:41">
+    <row r="286" spans="1:41">
       <c r="A286" s="7" t="s">
         <v>724</v>
       </c>
@@ -20920,7 +20912,7 @@
       <c r="AN286" s="15"/>
       <c r="AO286" s="15"/>
     </row>
-    <row r="287" hidden="1" spans="1:41">
+    <row r="287" spans="1:41">
       <c r="A287" s="7" t="s">
         <v>727</v>
       </c>
@@ -20977,7 +20969,7 @@
       <c r="AN287" s="15"/>
       <c r="AO287" s="15"/>
     </row>
-    <row r="288" hidden="1" spans="1:41">
+    <row r="288" spans="1:41">
       <c r="A288" s="7" t="s">
         <v>729</v>
       </c>
@@ -21034,7 +21026,7 @@
       <c r="AN288" s="15"/>
       <c r="AO288" s="15"/>
     </row>
-    <row r="289" hidden="1" spans="1:41">
+    <row r="289" spans="1:41">
       <c r="A289" s="7" t="s">
         <v>731</v>
       </c>
@@ -21091,7 +21083,7 @@
       <c r="AN289" s="15"/>
       <c r="AO289" s="15"/>
     </row>
-    <row r="290" hidden="1" spans="1:41">
+    <row r="290" spans="1:41">
       <c r="A290" s="7" t="s">
         <v>733</v>
       </c>
@@ -21148,7 +21140,7 @@
       <c r="AN290" s="15"/>
       <c r="AO290" s="15"/>
     </row>
-    <row r="291" hidden="1" spans="1:41">
+    <row r="291" spans="1:41">
       <c r="A291" s="7" t="s">
         <v>735</v>
       </c>
@@ -21205,7 +21197,7 @@
       <c r="AN291" s="15"/>
       <c r="AO291" s="15"/>
     </row>
-    <row r="292" hidden="1" spans="1:41">
+    <row r="292" spans="1:41">
       <c r="A292" s="7" t="s">
         <v>737</v>
       </c>
@@ -21262,7 +21254,7 @@
       <c r="AN292" s="15"/>
       <c r="AO292" s="15"/>
     </row>
-    <row r="293" hidden="1" spans="1:41">
+    <row r="293" spans="1:41">
       <c r="A293" s="7" t="s">
         <v>740</v>
       </c>
@@ -21319,7 +21311,7 @@
       <c r="AN293" s="15"/>
       <c r="AO293" s="15"/>
     </row>
-    <row r="294" hidden="1" spans="1:41">
+    <row r="294" spans="1:41">
       <c r="A294" s="7" t="s">
         <v>743</v>
       </c>
@@ -21455,7 +21447,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:41">
+    <row r="296" spans="1:41">
       <c r="A296" s="7" t="s">
         <v>748</v>
       </c>
@@ -21512,7 +21504,7 @@
       <c r="AN296" s="15"/>
       <c r="AO296" s="15"/>
     </row>
-    <row r="297" hidden="1" spans="1:41">
+    <row r="297" spans="1:41">
       <c r="A297" s="7" t="s">
         <v>750</v>
       </c>
@@ -21569,7 +21561,7 @@
       <c r="AN297" s="15"/>
       <c r="AO297" s="15"/>
     </row>
-    <row r="298" hidden="1" spans="1:41">
+    <row r="298" spans="1:41">
       <c r="A298" s="7" t="s">
         <v>752</v>
       </c>
@@ -21626,7 +21618,7 @@
       <c r="AN298" s="15"/>
       <c r="AO298" s="15"/>
     </row>
-    <row r="299" hidden="1" spans="1:41">
+    <row r="299" spans="1:41">
       <c r="A299" s="7" t="s">
         <v>754</v>
       </c>
@@ -21683,7 +21675,7 @@
       <c r="AN299" s="15"/>
       <c r="AO299" s="15"/>
     </row>
-    <row r="300" hidden="1" spans="1:41">
+    <row r="300" spans="1:41">
       <c r="A300" s="7" t="s">
         <v>756</v>
       </c>
@@ -21740,7 +21732,7 @@
       <c r="AN300" s="15"/>
       <c r="AO300" s="15"/>
     </row>
-    <row r="301" hidden="1" spans="1:41">
+    <row r="301" spans="1:41">
       <c r="A301" s="7" t="s">
         <v>759</v>
       </c>
@@ -21797,7 +21789,7 @@
       <c r="AN301" s="15"/>
       <c r="AO301" s="15"/>
     </row>
-    <row r="302" hidden="1" spans="1:41">
+    <row r="302" spans="1:41">
       <c r="A302" s="7" t="s">
         <v>761</v>
       </c>
@@ -21913,7 +21905,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:41">
+    <row r="304" spans="1:41">
       <c r="A304" s="7" t="s">
         <v>765</v>
       </c>
@@ -21970,7 +21962,7 @@
       <c r="AN304" s="15"/>
       <c r="AO304" s="15"/>
     </row>
-    <row r="305" hidden="1" spans="1:41">
+    <row r="305" spans="1:41">
       <c r="A305" s="7" t="s">
         <v>768</v>
       </c>
@@ -22027,7 +22019,7 @@
       <c r="AN305" s="15"/>
       <c r="AO305" s="15"/>
     </row>
-    <row r="306" hidden="1" spans="1:41">
+    <row r="306" spans="1:41">
       <c r="A306" s="7" t="s">
         <v>770</v>
       </c>
@@ -22084,7 +22076,7 @@
       <c r="AN306" s="15"/>
       <c r="AO306" s="15"/>
     </row>
-    <row r="307" hidden="1" spans="1:41">
+    <row r="307" spans="1:41">
       <c r="A307" s="7" t="s">
         <v>772</v>
       </c>
@@ -22141,7 +22133,7 @@
       <c r="AN307" s="15"/>
       <c r="AO307" s="15"/>
     </row>
-    <row r="308" hidden="1" spans="1:41">
+    <row r="308" spans="1:41">
       <c r="A308" s="7" t="s">
         <v>774</v>
       </c>
@@ -22198,7 +22190,7 @@
       <c r="AN308" s="15"/>
       <c r="AO308" s="15"/>
     </row>
-    <row r="309" hidden="1" spans="1:41">
+    <row r="309" spans="1:41">
       <c r="A309" s="7" t="s">
         <v>777</v>
       </c>
@@ -22255,7 +22247,7 @@
       <c r="AN309" s="15"/>
       <c r="AO309" s="15"/>
     </row>
-    <row r="310" hidden="1" spans="1:41">
+    <row r="310" spans="1:41">
       <c r="A310" s="7" t="s">
         <v>779</v>
       </c>
@@ -22312,7 +22304,7 @@
       <c r="AN310" s="15"/>
       <c r="AO310" s="15"/>
     </row>
-    <row r="311" hidden="1" spans="1:41">
+    <row r="311" spans="1:41">
       <c r="A311" s="7" t="s">
         <v>781</v>
       </c>
@@ -22369,7 +22361,7 @@
       <c r="AN311" s="15"/>
       <c r="AO311" s="15"/>
     </row>
-    <row r="312" hidden="1" spans="1:41">
+    <row r="312" spans="1:41">
       <c r="A312" s="7" t="s">
         <v>784</v>
       </c>
@@ -22426,7 +22418,7 @@
       <c r="AN312" s="15"/>
       <c r="AO312" s="15"/>
     </row>
-    <row r="313" hidden="1" spans="1:41">
+    <row r="313" spans="1:41">
       <c r="A313" s="7" t="s">
         <v>786</v>
       </c>
@@ -22483,7 +22475,7 @@
       <c r="AN313" s="15"/>
       <c r="AO313" s="15"/>
     </row>
-    <row r="314" hidden="1" spans="1:41">
+    <row r="314" spans="1:41">
       <c r="A314" s="7" t="s">
         <v>788</v>
       </c>
@@ -22540,7 +22532,7 @@
       <c r="AN314" s="15"/>
       <c r="AO314" s="15"/>
     </row>
-    <row r="315" hidden="1" spans="1:41">
+    <row r="315" spans="1:41">
       <c r="A315" s="7" t="s">
         <v>790</v>
       </c>
@@ -22597,7 +22589,7 @@
       <c r="AN315" s="15"/>
       <c r="AO315" s="15"/>
     </row>
-    <row r="316" hidden="1" spans="1:41">
+    <row r="316" spans="1:41">
       <c r="A316" s="7" t="s">
         <v>793</v>
       </c>
@@ -22656,7 +22648,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:41">
+    <row r="317" spans="1:41">
       <c r="A317" s="7" t="s">
         <v>795</v>
       </c>
@@ -22713,7 +22705,7 @@
       <c r="AN317" s="15"/>
       <c r="AO317" s="15"/>
     </row>
-    <row r="318" hidden="1" spans="1:41">
+    <row r="318" spans="1:41">
       <c r="A318" s="7" t="s">
         <v>797</v>
       </c>
@@ -22770,7 +22762,7 @@
       <c r="AN318" s="15"/>
       <c r="AO318" s="15"/>
     </row>
-    <row r="319" hidden="1" spans="1:41">
+    <row r="319" spans="1:41">
       <c r="A319" s="7" t="s">
         <v>799</v>
       </c>
@@ -22827,7 +22819,7 @@
       <c r="AN319" s="15"/>
       <c r="AO319" s="15"/>
     </row>
-    <row r="320" hidden="1" spans="1:41">
+    <row r="320" spans="1:41">
       <c r="A320" s="7" t="s">
         <v>801</v>
       </c>
@@ -22884,7 +22876,7 @@
       <c r="AN320" s="15"/>
       <c r="AO320" s="15"/>
     </row>
-    <row r="321" hidden="1" spans="1:41">
+    <row r="321" spans="1:41">
       <c r="A321" s="7" t="s">
         <v>803</v>
       </c>
@@ -22941,7 +22933,7 @@
       <c r="AN321" s="15"/>
       <c r="AO321" s="15"/>
     </row>
-    <row r="322" hidden="1" spans="1:41">
+    <row r="322" spans="1:41">
       <c r="A322" s="7" t="s">
         <v>805</v>
       </c>
@@ -22998,7 +22990,7 @@
       <c r="AN322" s="15"/>
       <c r="AO322" s="15"/>
     </row>
-    <row r="323" hidden="1" spans="1:41">
+    <row r="323" spans="1:41">
       <c r="A323" s="7" t="s">
         <v>808</v>
       </c>
@@ -23055,7 +23047,7 @@
       <c r="AN323" s="15"/>
       <c r="AO323" s="15"/>
     </row>
-    <row r="324" hidden="1" spans="1:41">
+    <row r="324" spans="1:41">
       <c r="A324" s="7" t="s">
         <v>810</v>
       </c>
@@ -23112,7 +23104,7 @@
       <c r="AN324" s="15"/>
       <c r="AO324" s="15"/>
     </row>
-    <row r="325" hidden="1" spans="1:41">
+    <row r="325" spans="1:41">
       <c r="A325" s="7" t="s">
         <v>813</v>
       </c>
@@ -23169,7 +23161,7 @@
       <c r="AN325" s="15"/>
       <c r="AO325" s="15"/>
     </row>
-    <row r="326" hidden="1" spans="1:41">
+    <row r="326" spans="1:41">
       <c r="A326" s="7" t="s">
         <v>815</v>
       </c>
@@ -23226,7 +23218,7 @@
       <c r="AN326" s="15"/>
       <c r="AO326" s="15"/>
     </row>
-    <row r="327" hidden="1" spans="1:41">
+    <row r="327" spans="1:41">
       <c r="A327" s="7" t="s">
         <v>817</v>
       </c>
@@ -23283,7 +23275,7 @@
       <c r="AN327" s="15"/>
       <c r="AO327" s="15"/>
     </row>
-    <row r="328" hidden="1" spans="1:41">
+    <row r="328" spans="1:41">
       <c r="A328" s="7" t="s">
         <v>820</v>
       </c>
@@ -23340,7 +23332,7 @@
       <c r="AN328" s="15"/>
       <c r="AO328" s="15"/>
     </row>
-    <row r="329" hidden="1" spans="1:41">
+    <row r="329" spans="1:41">
       <c r="A329" s="7" t="s">
         <v>823</v>
       </c>
@@ -23399,7 +23391,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:41">
+    <row r="330" spans="1:41">
       <c r="A330" s="7" t="s">
         <v>825</v>
       </c>
@@ -23456,7 +23448,7 @@
       <c r="AN330" s="15"/>
       <c r="AO330" s="15"/>
     </row>
-    <row r="331" hidden="1" spans="1:41">
+    <row r="331" spans="1:41">
       <c r="A331" s="7" t="s">
         <v>828</v>
       </c>
@@ -23513,7 +23505,7 @@
       <c r="AN331" s="15"/>
       <c r="AO331" s="15"/>
     </row>
-    <row r="332" hidden="1" spans="1:41">
+    <row r="332" spans="1:41">
       <c r="A332" s="7" t="s">
         <v>830</v>
       </c>
@@ -23570,7 +23562,7 @@
       <c r="AN332" s="15"/>
       <c r="AO332" s="15"/>
     </row>
-    <row r="333" hidden="1" spans="1:41">
+    <row r="333" spans="1:41">
       <c r="A333" s="7" t="s">
         <v>833</v>
       </c>
@@ -23627,7 +23619,7 @@
       <c r="AN333" s="15"/>
       <c r="AO333" s="15"/>
     </row>
-    <row r="334" hidden="1" spans="1:41">
+    <row r="334" spans="1:41">
       <c r="A334" s="7" t="s">
         <v>835</v>
       </c>
@@ -23684,7 +23676,7 @@
       <c r="AN334" s="15"/>
       <c r="AO334" s="15"/>
     </row>
-    <row r="335" hidden="1" spans="1:41">
+    <row r="335" spans="1:41">
       <c r="A335" s="7" t="s">
         <v>837</v>
       </c>
@@ -23741,7 +23733,7 @@
       <c r="AN335" s="15"/>
       <c r="AO335" s="15"/>
     </row>
-    <row r="336" hidden="1" spans="1:41">
+    <row r="336" spans="1:41">
       <c r="A336" s="7" t="s">
         <v>839</v>
       </c>
@@ -23800,7 +23792,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:41">
+    <row r="337" spans="1:41">
       <c r="A337" s="7" t="s">
         <v>841</v>
       </c>
@@ -23857,7 +23849,7 @@
       <c r="AN337" s="15"/>
       <c r="AO337" s="15"/>
     </row>
-    <row r="338" hidden="1" spans="1:41">
+    <row r="338" spans="1:41">
       <c r="A338" s="7" t="s">
         <v>844</v>
       </c>
@@ -23914,7 +23906,7 @@
       <c r="AN338" s="15"/>
       <c r="AO338" s="15"/>
     </row>
-    <row r="339" hidden="1" spans="1:41">
+    <row r="339" spans="1:41">
       <c r="A339" s="7" t="s">
         <v>846</v>
       </c>
@@ -23971,7 +23963,7 @@
       <c r="AN339" s="15"/>
       <c r="AO339" s="15"/>
     </row>
-    <row r="340" hidden="1" spans="1:41">
+    <row r="340" spans="1:41">
       <c r="A340" s="7" t="s">
         <v>848</v>
       </c>
@@ -24028,7 +24020,7 @@
       <c r="AN340" s="15"/>
       <c r="AO340" s="15"/>
     </row>
-    <row r="341" hidden="1" spans="1:41">
+    <row r="341" spans="1:41">
       <c r="A341" s="7" t="s">
         <v>850</v>
       </c>
@@ -24112,7 +24104,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:41">
+    <row r="342" spans="1:41">
       <c r="A342" s="7" t="s">
         <v>852</v>
       </c>
@@ -24169,7 +24161,7 @@
       <c r="AN342" s="15"/>
       <c r="AO342" s="15"/>
     </row>
-    <row r="343" hidden="1" spans="1:41">
+    <row r="343" spans="1:41">
       <c r="A343" s="7" t="s">
         <v>854</v>
       </c>
@@ -24226,7 +24218,7 @@
       <c r="AN343" s="15"/>
       <c r="AO343" s="15"/>
     </row>
-    <row r="344" hidden="1" spans="1:41">
+    <row r="344" spans="1:41">
       <c r="A344" s="7" t="s">
         <v>856</v>
       </c>
@@ -24372,7 +24364,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:41">
+    <row r="346" spans="1:41">
       <c r="A346" s="7" t="s">
         <v>860</v>
       </c>
@@ -24429,7 +24421,7 @@
       <c r="AN346" s="15"/>
       <c r="AO346" s="15"/>
     </row>
-    <row r="347" hidden="1" spans="1:41">
+    <row r="347" spans="1:41">
       <c r="A347" s="7" t="s">
         <v>862</v>
       </c>
@@ -24486,7 +24478,7 @@
       <c r="AN347" s="15"/>
       <c r="AO347" s="15"/>
     </row>
-    <row r="348" hidden="1" spans="1:41">
+    <row r="348" spans="1:41">
       <c r="A348" s="7" t="s">
         <v>864</v>
       </c>
@@ -24543,7 +24535,7 @@
       <c r="AN348" s="15"/>
       <c r="AO348" s="15"/>
     </row>
-    <row r="349" hidden="1" spans="1:41">
+    <row r="349" spans="1:41">
       <c r="A349" s="7" t="s">
         <v>866</v>
       </c>
@@ -24600,7 +24592,7 @@
       <c r="AN349" s="15"/>
       <c r="AO349" s="15"/>
     </row>
-    <row r="350" hidden="1" spans="1:41">
+    <row r="350" spans="1:41">
       <c r="A350" s="7" t="s">
         <v>869</v>
       </c>
@@ -24657,7 +24649,7 @@
       <c r="AN350" s="15"/>
       <c r="AO350" s="15"/>
     </row>
-    <row r="351" hidden="1" spans="1:41">
+    <row r="351" spans="1:41">
       <c r="A351" s="7" t="s">
         <v>871</v>
       </c>
@@ -24714,7 +24706,7 @@
       <c r="AN351" s="15"/>
       <c r="AO351" s="15"/>
     </row>
-    <row r="352" hidden="1" spans="1:41">
+    <row r="352" spans="1:41">
       <c r="A352" s="7" t="s">
         <v>873</v>
       </c>
@@ -24771,7 +24763,7 @@
       <c r="AN352" s="15"/>
       <c r="AO352" s="15"/>
     </row>
-    <row r="353" hidden="1" spans="1:41">
+    <row r="353" spans="1:41">
       <c r="A353" s="7" t="s">
         <v>875</v>
       </c>
@@ -24828,7 +24820,7 @@
       <c r="AN353" s="15"/>
       <c r="AO353" s="15"/>
     </row>
-    <row r="354" hidden="1" spans="1:41">
+    <row r="354" spans="1:41">
       <c r="A354" s="7" t="s">
         <v>877</v>
       </c>
@@ -24885,7 +24877,7 @@
       <c r="AN354" s="15"/>
       <c r="AO354" s="15"/>
     </row>
-    <row r="355" hidden="1" spans="1:41">
+    <row r="355" spans="1:41">
       <c r="A355" s="7" t="s">
         <v>879</v>
       </c>
@@ -24942,7 +24934,7 @@
       <c r="AN355" s="15"/>
       <c r="AO355" s="15"/>
     </row>
-    <row r="356" hidden="1" spans="1:41">
+    <row r="356" spans="1:41">
       <c r="A356" s="7" t="s">
         <v>881</v>
       </c>
@@ -24999,7 +24991,7 @@
       <c r="AN356" s="15"/>
       <c r="AO356" s="15"/>
     </row>
-    <row r="357" hidden="1" spans="1:41">
+    <row r="357" spans="1:41">
       <c r="A357" s="7" t="s">
         <v>883</v>
       </c>
@@ -25056,7 +25048,7 @@
       <c r="AN357" s="15"/>
       <c r="AO357" s="15"/>
     </row>
-    <row r="358" hidden="1" spans="1:41">
+    <row r="358" spans="1:41">
       <c r="A358" s="7" t="s">
         <v>885</v>
       </c>
@@ -25113,7 +25105,7 @@
       <c r="AN358" s="15"/>
       <c r="AO358" s="15"/>
     </row>
-    <row r="359" hidden="1" spans="1:41">
+    <row r="359" spans="1:41">
       <c r="A359" s="7" t="s">
         <v>887</v>
       </c>
@@ -25255,11 +25247,6 @@
       <c r="AO360" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A360">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -25290,7 +25277,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220601.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11500"/>
+    <workbookView windowWidth="26500" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -2946,14 +2946,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2991,14 +2991,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3019,31 +3035,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3058,46 +3052,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3106,13 +3090,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3133,9 +3110,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3198,37 +3198,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,7 +3264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,19 +3282,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,97 +3372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3404,23 +3404,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3428,47 +3413,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3498,151 +3444,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3654,7 +3654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3678,10 +3678,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3694,16 +3694,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3724,7 +3724,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3792,15 +3792,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4145,15 +4137,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AO360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AC43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AN168" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD235" sqref="AD235"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="D1:AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -4239,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:41">
+    <row r="2" spans="1:41">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4314,7 +4306,7 @@
       <c r="AN2" s="26"/>
       <c r="AO2" s="27"/>
     </row>
-    <row r="3" ht="41" hidden="1" spans="1:41">
+    <row r="3" ht="41" spans="1:41">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4395,7 +4387,7 @@
       <c r="AN3" s="26"/>
       <c r="AO3" s="27"/>
     </row>
-    <row r="4" hidden="1" spans="1:41">
+    <row r="4" spans="1:41">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -4452,7 +4444,7 @@
       <c r="AN4" s="15"/>
       <c r="AO4" s="15"/>
     </row>
-    <row r="5" hidden="1" spans="1:41">
+    <row r="5" spans="1:41">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -4509,7 +4501,7 @@
       <c r="AN5" s="15"/>
       <c r="AO5" s="15"/>
     </row>
-    <row r="6" hidden="1" spans="1:41">
+    <row r="6" spans="1:41">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
@@ -4566,7 +4558,7 @@
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
     </row>
-    <row r="7" hidden="1" spans="1:41">
+    <row r="7" spans="1:41">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -4623,7 +4615,7 @@
       <c r="AN7" s="15"/>
       <c r="AO7" s="15"/>
     </row>
-    <row r="8" hidden="1" spans="1:41">
+    <row r="8" spans="1:41">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -4680,7 +4672,7 @@
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
     </row>
-    <row r="9" hidden="1" spans="1:41">
+    <row r="9" spans="1:41">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -4737,7 +4729,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
     </row>
-    <row r="10" hidden="1" spans="1:41">
+    <row r="10" spans="1:41">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
@@ -4794,7 +4786,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
     </row>
-    <row r="11" hidden="1" spans="1:41">
+    <row r="11" spans="1:41">
       <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
@@ -4969,7 +4961,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:41">
+    <row r="14" spans="1:41">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -5026,7 +5018,7 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
     </row>
-    <row r="15" hidden="1" spans="1:41">
+    <row r="15" spans="1:41">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -5083,7 +5075,7 @@
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
     </row>
-    <row r="16" hidden="1" spans="1:41">
+    <row r="16" spans="1:41">
       <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
@@ -5140,7 +5132,7 @@
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
     </row>
-    <row r="17" hidden="1" spans="1:41">
+    <row r="17" spans="1:41">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -5197,7 +5189,7 @@
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
     </row>
-    <row r="18" hidden="1" spans="1:41">
+    <row r="18" spans="1:41">
       <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
@@ -5254,7 +5246,7 @@
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
     </row>
-    <row r="19" hidden="1" spans="1:41">
+    <row r="19" spans="1:41">
       <c r="A19" s="7" t="s">
         <v>91</v>
       </c>
@@ -5311,7 +5303,7 @@
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
     </row>
-    <row r="20" hidden="1" spans="1:41">
+    <row r="20" spans="1:41">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
@@ -5368,7 +5360,7 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
     </row>
-    <row r="21" hidden="1" spans="1:41">
+    <row r="21" spans="1:41">
       <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
@@ -5425,7 +5417,7 @@
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
     </row>
-    <row r="22" hidden="1" spans="1:41">
+    <row r="22" spans="1:41">
       <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
@@ -5482,7 +5474,7 @@
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
     </row>
-    <row r="23" hidden="1" spans="1:41">
+    <row r="23" spans="1:41">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -5539,7 +5531,7 @@
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
     </row>
-    <row r="24" hidden="1" spans="1:41">
+    <row r="24" spans="1:41">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -5596,7 +5588,7 @@
       <c r="AN24" s="15"/>
       <c r="AO24" s="15"/>
     </row>
-    <row r="25" hidden="1" spans="1:41">
+    <row r="25" spans="1:41">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -5653,7 +5645,7 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="15"/>
     </row>
-    <row r="26" hidden="1" spans="1:41">
+    <row r="26" spans="1:41">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -5710,7 +5702,7 @@
       <c r="AN26" s="15"/>
       <c r="AO26" s="15"/>
     </row>
-    <row r="27" hidden="1" spans="1:41">
+    <row r="27" spans="1:41">
       <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
@@ -5767,7 +5759,7 @@
       <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
     </row>
-    <row r="28" hidden="1" spans="1:41">
+    <row r="28" spans="1:41">
       <c r="A28" s="7" t="s">
         <v>114</v>
       </c>
@@ -5824,7 +5816,7 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="15"/>
     </row>
-    <row r="29" hidden="1" spans="1:41">
+    <row r="29" spans="1:41">
       <c r="A29" s="7" t="s">
         <v>116</v>
       </c>
@@ -5881,7 +5873,7 @@
       <c r="AN29" s="15"/>
       <c r="AO29" s="15"/>
     </row>
-    <row r="30" hidden="1" spans="1:41">
+    <row r="30" spans="1:41">
       <c r="A30" s="7" t="s">
         <v>119</v>
       </c>
@@ -5938,7 +5930,7 @@
       <c r="AN30" s="15"/>
       <c r="AO30" s="15"/>
     </row>
-    <row r="31" hidden="1" spans="1:41">
+    <row r="31" spans="1:41">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -5995,7 +5987,7 @@
       <c r="AN31" s="15"/>
       <c r="AO31" s="15"/>
     </row>
-    <row r="32" hidden="1" spans="1:41">
+    <row r="32" spans="1:41">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
@@ -6052,7 +6044,7 @@
       <c r="AN32" s="15"/>
       <c r="AO32" s="15"/>
     </row>
-    <row r="33" hidden="1" spans="1:41">
+    <row r="33" spans="1:41">
       <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
@@ -6109,7 +6101,7 @@
       <c r="AN33" s="15"/>
       <c r="AO33" s="15"/>
     </row>
-    <row r="34" hidden="1" spans="1:41">
+    <row r="34" spans="1:41">
       <c r="A34" s="7" t="s">
         <v>131</v>
       </c>
@@ -6166,7 +6158,7 @@
       <c r="AN34" s="15"/>
       <c r="AO34" s="15"/>
     </row>
-    <row r="35" hidden="1" spans="1:41">
+    <row r="35" spans="1:41">
       <c r="A35" s="7" t="s">
         <v>134</v>
       </c>
@@ -6223,7 +6215,7 @@
       <c r="AN35" s="15"/>
       <c r="AO35" s="15"/>
     </row>
-    <row r="36" hidden="1" spans="1:41">
+    <row r="36" spans="1:41">
       <c r="A36" s="7" t="s">
         <v>137</v>
       </c>
@@ -6280,7 +6272,7 @@
       <c r="AN36" s="15"/>
       <c r="AO36" s="15"/>
     </row>
-    <row r="37" hidden="1" spans="1:41">
+    <row r="37" spans="1:41">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -6337,7 +6329,7 @@
       <c r="AN37" s="15"/>
       <c r="AO37" s="15"/>
     </row>
-    <row r="38" hidden="1" spans="1:41">
+    <row r="38" spans="1:41">
       <c r="A38" s="7" t="s">
         <v>142</v>
       </c>
@@ -6394,7 +6386,7 @@
       <c r="AN38" s="15"/>
       <c r="AO38" s="15"/>
     </row>
-    <row r="39" hidden="1" spans="1:41">
+    <row r="39" spans="1:41">
       <c r="A39" s="7" t="s">
         <v>144</v>
       </c>
@@ -6451,7 +6443,7 @@
       <c r="AN39" s="15"/>
       <c r="AO39" s="15"/>
     </row>
-    <row r="40" hidden="1" spans="1:41">
+    <row r="40" spans="1:41">
       <c r="A40" s="7" t="s">
         <v>146</v>
       </c>
@@ -6508,7 +6500,7 @@
       <c r="AN40" s="15"/>
       <c r="AO40" s="15"/>
     </row>
-    <row r="41" hidden="1" spans="1:41">
+    <row r="41" spans="1:41">
       <c r="A41" s="7" t="s">
         <v>148</v>
       </c>
@@ -6565,7 +6557,7 @@
       <c r="AN41" s="15"/>
       <c r="AO41" s="15"/>
     </row>
-    <row r="42" hidden="1" spans="1:41">
+    <row r="42" spans="1:41">
       <c r="A42" s="7" t="s">
         <v>151</v>
       </c>
@@ -6681,7 +6673,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:41">
+    <row r="44" spans="1:41">
       <c r="A44" s="7" t="s">
         <v>157</v>
       </c>
@@ -6824,7 +6816,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:41">
+    <row r="46" spans="1:41">
       <c r="A46" s="7" t="s">
         <v>162</v>
       </c>
@@ -6881,7 +6873,7 @@
       <c r="AN46" s="15"/>
       <c r="AO46" s="15"/>
     </row>
-    <row r="47" hidden="1" spans="1:41">
+    <row r="47" spans="1:41">
       <c r="A47" s="7" t="s">
         <v>165</v>
       </c>
@@ -6938,7 +6930,7 @@
       <c r="AN47" s="15"/>
       <c r="AO47" s="15"/>
     </row>
-    <row r="48" hidden="1" spans="1:41">
+    <row r="48" spans="1:41">
       <c r="A48" s="7" t="s">
         <v>167</v>
       </c>
@@ -6995,7 +6987,7 @@
       <c r="AN48" s="15"/>
       <c r="AO48" s="15"/>
     </row>
-    <row r="49" hidden="1" spans="1:41">
+    <row r="49" spans="1:41">
       <c r="A49" s="7" t="s">
         <v>170</v>
       </c>
@@ -7052,7 +7044,7 @@
       <c r="AN49" s="15"/>
       <c r="AO49" s="15"/>
     </row>
-    <row r="50" hidden="1" spans="1:41">
+    <row r="50" spans="1:41">
       <c r="A50" s="7" t="s">
         <v>173</v>
       </c>
@@ -7168,7 +7160,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:41">
+    <row r="52" spans="1:41">
       <c r="A52" s="7" t="s">
         <v>178</v>
       </c>
@@ -7225,7 +7217,7 @@
       <c r="AN52" s="15"/>
       <c r="AO52" s="15"/>
     </row>
-    <row r="53" hidden="1" spans="1:41">
+    <row r="53" spans="1:41">
       <c r="A53" s="7" t="s">
         <v>181</v>
       </c>
@@ -7282,7 +7274,7 @@
       <c r="AN53" s="15"/>
       <c r="AO53" s="15"/>
     </row>
-    <row r="54" hidden="1" spans="1:41">
+    <row r="54" spans="1:41">
       <c r="A54" s="7" t="s">
         <v>184</v>
       </c>
@@ -7339,7 +7331,7 @@
       <c r="AN54" s="15"/>
       <c r="AO54" s="15"/>
     </row>
-    <row r="55" hidden="1" spans="1:41">
+    <row r="55" spans="1:41">
       <c r="A55" s="7" t="s">
         <v>187</v>
       </c>
@@ -7482,7 +7474,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:41">
+    <row r="57" spans="1:41">
       <c r="A57" s="7" t="s">
         <v>192</v>
       </c>
@@ -7539,7 +7531,7 @@
       <c r="AN57" s="15"/>
       <c r="AO57" s="15"/>
     </row>
-    <row r="58" hidden="1" spans="1:41">
+    <row r="58" spans="1:41">
       <c r="A58" s="7" t="s">
         <v>195</v>
       </c>
@@ -7596,7 +7588,7 @@
       <c r="AN58" s="15"/>
       <c r="AO58" s="15"/>
     </row>
-    <row r="59" hidden="1" spans="1:41">
+    <row r="59" spans="1:41">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -7712,7 +7704,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:41">
+    <row r="61" spans="1:41">
       <c r="A61" s="7" t="s">
         <v>203</v>
       </c>
@@ -7862,7 +7854,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:41">
+    <row r="63" spans="1:41">
       <c r="A63" s="7" t="s">
         <v>207</v>
       </c>
@@ -7919,7 +7911,7 @@
       <c r="AN63" s="15"/>
       <c r="AO63" s="15"/>
     </row>
-    <row r="64" hidden="1" spans="1:41">
+    <row r="64" spans="1:41">
       <c r="A64" s="7" t="s">
         <v>209</v>
       </c>
@@ -7976,7 +7968,7 @@
       <c r="AN64" s="15"/>
       <c r="AO64" s="15"/>
     </row>
-    <row r="65" hidden="1" spans="1:41">
+    <row r="65" spans="1:41">
       <c r="A65" s="7" t="s">
         <v>211</v>
       </c>
@@ -8033,7 +8025,7 @@
       <c r="AN65" s="15"/>
       <c r="AO65" s="15"/>
     </row>
-    <row r="66" hidden="1" spans="1:41">
+    <row r="66" spans="1:41">
       <c r="A66" s="7" t="s">
         <v>214</v>
       </c>
@@ -8090,7 +8082,7 @@
       <c r="AN66" s="15"/>
       <c r="AO66" s="15"/>
     </row>
-    <row r="67" hidden="1" spans="1:41">
+    <row r="67" spans="1:41">
       <c r="A67" s="7" t="s">
         <v>216</v>
       </c>
@@ -8206,7 +8198,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:41">
+    <row r="69" spans="1:41">
       <c r="A69" s="7" t="s">
         <v>220</v>
       </c>
@@ -8263,7 +8255,7 @@
       <c r="AN69" s="15"/>
       <c r="AO69" s="15"/>
     </row>
-    <row r="70" hidden="1" spans="1:41">
+    <row r="70" spans="1:41">
       <c r="A70" s="7" t="s">
         <v>223</v>
       </c>
@@ -8320,7 +8312,7 @@
       <c r="AN70" s="15"/>
       <c r="AO70" s="15"/>
     </row>
-    <row r="71" hidden="1" spans="1:41">
+    <row r="71" spans="1:41">
       <c r="A71" s="7" t="s">
         <v>225</v>
       </c>
@@ -8377,7 +8369,7 @@
       <c r="AN71" s="15"/>
       <c r="AO71" s="15"/>
     </row>
-    <row r="72" hidden="1" spans="1:41">
+    <row r="72" spans="1:41">
       <c r="A72" s="7" t="s">
         <v>227</v>
       </c>
@@ -8434,7 +8426,7 @@
       <c r="AN72" s="15"/>
       <c r="AO72" s="15"/>
     </row>
-    <row r="73" hidden="1" spans="1:41">
+    <row r="73" spans="1:41">
       <c r="A73" s="7" t="s">
         <v>229</v>
       </c>
@@ -8491,7 +8483,7 @@
       <c r="AN73" s="15"/>
       <c r="AO73" s="15"/>
     </row>
-    <row r="74" hidden="1" spans="1:41">
+    <row r="74" spans="1:41">
       <c r="A74" s="7" t="s">
         <v>232</v>
       </c>
@@ -8548,7 +8540,7 @@
       <c r="AN74" s="15"/>
       <c r="AO74" s="15"/>
     </row>
-    <row r="75" hidden="1" spans="1:41">
+    <row r="75" spans="1:41">
       <c r="A75" s="7" t="s">
         <v>234</v>
       </c>
@@ -8605,7 +8597,7 @@
       <c r="AN75" s="15"/>
       <c r="AO75" s="15"/>
     </row>
-    <row r="76" hidden="1" spans="1:41">
+    <row r="76" spans="1:41">
       <c r="A76" s="7" t="s">
         <v>236</v>
       </c>
@@ -8662,7 +8654,7 @@
       <c r="AN76" s="15"/>
       <c r="AO76" s="15"/>
     </row>
-    <row r="77" hidden="1" spans="1:41">
+    <row r="77" spans="1:41">
       <c r="A77" s="7" t="s">
         <v>239</v>
       </c>
@@ -8819,7 +8811,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:41">
+    <row r="79" spans="1:41">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -8876,7 +8868,7 @@
       <c r="AN79" s="15"/>
       <c r="AO79" s="15"/>
     </row>
-    <row r="80" hidden="1" spans="1:41">
+    <row r="80" spans="1:41">
       <c r="A80" s="7" t="s">
         <v>247</v>
       </c>
@@ -8933,7 +8925,7 @@
       <c r="AN80" s="15"/>
       <c r="AO80" s="15"/>
     </row>
-    <row r="81" hidden="1" spans="1:41">
+    <row r="81" spans="1:41">
       <c r="A81" s="7" t="s">
         <v>249</v>
       </c>
@@ -9049,7 +9041,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:41">
+    <row r="83" spans="1:41">
       <c r="A83" s="7" t="s">
         <v>254</v>
       </c>
@@ -9106,7 +9098,7 @@
       <c r="AN83" s="15"/>
       <c r="AO83" s="15"/>
     </row>
-    <row r="84" hidden="1" spans="1:41">
+    <row r="84" spans="1:41">
       <c r="A84" s="7" t="s">
         <v>257</v>
       </c>
@@ -9270,7 +9262,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:41">
+    <row r="86" spans="1:41">
       <c r="A86" s="7" t="s">
         <v>261</v>
       </c>
@@ -9327,7 +9319,7 @@
       <c r="AN86" s="15"/>
       <c r="AO86" s="15"/>
     </row>
-    <row r="87" hidden="1" spans="1:41">
+    <row r="87" spans="1:41">
       <c r="A87" s="7" t="s">
         <v>264</v>
       </c>
@@ -9384,7 +9376,7 @@
       <c r="AN87" s="15"/>
       <c r="AO87" s="15"/>
     </row>
-    <row r="88" hidden="1" spans="1:41">
+    <row r="88" spans="1:41">
       <c r="A88" s="7" t="s">
         <v>267</v>
       </c>
@@ -9441,7 +9433,7 @@
       <c r="AN88" s="15"/>
       <c r="AO88" s="15"/>
     </row>
-    <row r="89" hidden="1" spans="1:41">
+    <row r="89" spans="1:41">
       <c r="A89" s="7" t="s">
         <v>269</v>
       </c>
@@ -9498,7 +9490,7 @@
       <c r="AN89" s="15"/>
       <c r="AO89" s="15"/>
     </row>
-    <row r="90" hidden="1" spans="1:41">
+    <row r="90" spans="1:41">
       <c r="A90" s="7" t="s">
         <v>271</v>
       </c>
@@ -9555,7 +9547,7 @@
       <c r="AN90" s="15"/>
       <c r="AO90" s="15"/>
     </row>
-    <row r="91" hidden="1" spans="1:41">
+    <row r="91" spans="1:41">
       <c r="A91" s="7" t="s">
         <v>274</v>
       </c>
@@ -9612,7 +9604,7 @@
       <c r="AN91" s="15"/>
       <c r="AO91" s="15"/>
     </row>
-    <row r="92" hidden="1" spans="1:41">
+    <row r="92" spans="1:41">
       <c r="A92" s="7" t="s">
         <v>277</v>
       </c>
@@ -9669,7 +9661,7 @@
       <c r="AN92" s="15"/>
       <c r="AO92" s="15"/>
     </row>
-    <row r="93" hidden="1" spans="1:41">
+    <row r="93" spans="1:41">
       <c r="A93" s="7" t="s">
         <v>279</v>
       </c>
@@ -9726,7 +9718,7 @@
       <c r="AN93" s="15"/>
       <c r="AO93" s="15"/>
     </row>
-    <row r="94" hidden="1" spans="1:41">
+    <row r="94" spans="1:41">
       <c r="A94" s="7" t="s">
         <v>281</v>
       </c>
@@ -9783,7 +9775,7 @@
       <c r="AN94" s="15"/>
       <c r="AO94" s="15"/>
     </row>
-    <row r="95" hidden="1" spans="1:41">
+    <row r="95" spans="1:41">
       <c r="A95" s="7" t="s">
         <v>283</v>
       </c>
@@ -9840,7 +9832,7 @@
       <c r="AN95" s="15"/>
       <c r="AO95" s="15"/>
     </row>
-    <row r="96" hidden="1" spans="1:41">
+    <row r="96" spans="1:41">
       <c r="A96" s="7" t="s">
         <v>285</v>
       </c>
@@ -9897,7 +9889,7 @@
       <c r="AN96" s="15"/>
       <c r="AO96" s="15"/>
     </row>
-    <row r="97" hidden="1" spans="1:41">
+    <row r="97" spans="1:41">
       <c r="A97" s="7" t="s">
         <v>288</v>
       </c>
@@ -9954,7 +9946,7 @@
       <c r="AN97" s="15"/>
       <c r="AO97" s="15"/>
     </row>
-    <row r="98" hidden="1" spans="1:41">
+    <row r="98" spans="1:41">
       <c r="A98" s="7" t="s">
         <v>290</v>
       </c>
@@ -10011,7 +10003,7 @@
       <c r="AN98" s="15"/>
       <c r="AO98" s="15"/>
     </row>
-    <row r="99" hidden="1" spans="1:41">
+    <row r="99" spans="1:41">
       <c r="A99" s="7" t="s">
         <v>293</v>
       </c>
@@ -10068,7 +10060,7 @@
       <c r="AN99" s="15"/>
       <c r="AO99" s="15"/>
     </row>
-    <row r="100" hidden="1" spans="1:41">
+    <row r="100" spans="1:41">
       <c r="A100" s="7" t="s">
         <v>296</v>
       </c>
@@ -10125,7 +10117,7 @@
       <c r="AN100" s="15"/>
       <c r="AO100" s="15"/>
     </row>
-    <row r="101" hidden="1" spans="1:41">
+    <row r="101" spans="1:41">
       <c r="A101" s="7" t="s">
         <v>298</v>
       </c>
@@ -10241,7 +10233,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:41">
+    <row r="103" spans="1:41">
       <c r="A103" s="7" t="s">
         <v>304</v>
       </c>
@@ -10298,7 +10290,7 @@
       <c r="AN103" s="15"/>
       <c r="AO103" s="15"/>
     </row>
-    <row r="104" hidden="1" spans="1:41">
+    <row r="104" spans="1:41">
       <c r="A104" s="7" t="s">
         <v>306</v>
       </c>
@@ -10355,7 +10347,7 @@
       <c r="AN104" s="15"/>
       <c r="AO104" s="15"/>
     </row>
-    <row r="105" hidden="1" spans="1:41">
+    <row r="105" spans="1:41">
       <c r="A105" s="7" t="s">
         <v>308</v>
       </c>
@@ -10412,7 +10404,7 @@
       <c r="AN105" s="15"/>
       <c r="AO105" s="15"/>
     </row>
-    <row r="106" hidden="1" spans="1:41">
+    <row r="106" spans="1:41">
       <c r="A106" s="7" t="s">
         <v>310</v>
       </c>
@@ -10469,7 +10461,7 @@
       <c r="AN106" s="15"/>
       <c r="AO106" s="15"/>
     </row>
-    <row r="107" hidden="1" spans="1:41">
+    <row r="107" spans="1:41">
       <c r="A107" s="7" t="s">
         <v>312</v>
       </c>
@@ -10526,7 +10518,7 @@
       <c r="AN107" s="15"/>
       <c r="AO107" s="15"/>
     </row>
-    <row r="108" hidden="1" spans="1:41">
+    <row r="108" spans="1:41">
       <c r="A108" s="7" t="s">
         <v>315</v>
       </c>
@@ -10583,7 +10575,7 @@
       <c r="AN108" s="15"/>
       <c r="AO108" s="15"/>
     </row>
-    <row r="109" hidden="1" spans="1:41">
+    <row r="109" spans="1:41">
       <c r="A109" s="7" t="s">
         <v>318</v>
       </c>
@@ -10640,7 +10632,7 @@
       <c r="AN109" s="15"/>
       <c r="AO109" s="15"/>
     </row>
-    <row r="110" hidden="1" spans="1:41">
+    <row r="110" spans="1:41">
       <c r="A110" s="7" t="s">
         <v>320</v>
       </c>
@@ -10697,7 +10689,7 @@
       <c r="AN110" s="15"/>
       <c r="AO110" s="15"/>
     </row>
-    <row r="111" hidden="1" spans="1:41">
+    <row r="111" spans="1:41">
       <c r="A111" s="7" t="s">
         <v>323</v>
       </c>
@@ -10754,7 +10746,7 @@
       <c r="AN111" s="15"/>
       <c r="AO111" s="15"/>
     </row>
-    <row r="112" hidden="1" spans="1:41">
+    <row r="112" spans="1:41">
       <c r="A112" s="7" t="s">
         <v>325</v>
       </c>
@@ -10811,7 +10803,7 @@
       <c r="AN112" s="15"/>
       <c r="AO112" s="15"/>
     </row>
-    <row r="113" hidden="1" spans="1:41">
+    <row r="113" spans="1:41">
       <c r="A113" s="7" t="s">
         <v>327</v>
       </c>
@@ -10868,7 +10860,7 @@
       <c r="AN113" s="15"/>
       <c r="AO113" s="15"/>
     </row>
-    <row r="114" hidden="1" spans="1:41">
+    <row r="114" spans="1:41">
       <c r="A114" s="7" t="s">
         <v>330</v>
       </c>
@@ -10925,7 +10917,7 @@
       <c r="AN114" s="15"/>
       <c r="AO114" s="15"/>
     </row>
-    <row r="115" hidden="1" spans="1:41">
+    <row r="115" spans="1:41">
       <c r="A115" s="7" t="s">
         <v>332</v>
       </c>
@@ -10982,7 +10974,7 @@
       <c r="AN115" s="15"/>
       <c r="AO115" s="15"/>
     </row>
-    <row r="116" hidden="1" spans="1:41">
+    <row r="116" spans="1:41">
       <c r="A116" s="7" t="s">
         <v>334</v>
       </c>
@@ -11039,7 +11031,7 @@
       <c r="AN116" s="15"/>
       <c r="AO116" s="15"/>
     </row>
-    <row r="117" hidden="1" spans="1:41">
+    <row r="117" spans="1:41">
       <c r="A117" s="7" t="s">
         <v>336</v>
       </c>
@@ -11096,7 +11088,7 @@
       <c r="AN117" s="15"/>
       <c r="AO117" s="15"/>
     </row>
-    <row r="118" hidden="1" spans="1:41">
+    <row r="118" spans="1:41">
       <c r="A118" s="7" t="s">
         <v>338</v>
       </c>
@@ -11153,7 +11145,7 @@
       <c r="AN118" s="15"/>
       <c r="AO118" s="15"/>
     </row>
-    <row r="119" hidden="1" spans="1:41">
+    <row r="119" spans="1:41">
       <c r="A119" s="7" t="s">
         <v>341</v>
       </c>
@@ -11210,7 +11202,7 @@
       <c r="AN119" s="15"/>
       <c r="AO119" s="15"/>
     </row>
-    <row r="120" hidden="1" spans="1:41">
+    <row r="120" spans="1:41">
       <c r="A120" s="7" t="s">
         <v>344</v>
       </c>
@@ -11267,7 +11259,7 @@
       <c r="AN120" s="15"/>
       <c r="AO120" s="15"/>
     </row>
-    <row r="121" hidden="1" spans="1:41">
+    <row r="121" spans="1:41">
       <c r="A121" s="7" t="s">
         <v>346</v>
       </c>
@@ -11324,7 +11316,7 @@
       <c r="AN121" s="15"/>
       <c r="AO121" s="15"/>
     </row>
-    <row r="122" hidden="1" spans="1:41">
+    <row r="122" spans="1:41">
       <c r="A122" s="7" t="s">
         <v>348</v>
       </c>
@@ -11381,7 +11373,7 @@
       <c r="AN122" s="15"/>
       <c r="AO122" s="15"/>
     </row>
-    <row r="123" hidden="1" spans="1:41">
+    <row r="123" spans="1:41">
       <c r="A123" s="7" t="s">
         <v>350</v>
       </c>
@@ -11438,7 +11430,7 @@
       <c r="AN123" s="15"/>
       <c r="AO123" s="15"/>
     </row>
-    <row r="124" hidden="1" spans="1:41">
+    <row r="124" spans="1:41">
       <c r="A124" s="7" t="s">
         <v>353</v>
       </c>
@@ -11495,7 +11487,7 @@
       <c r="AN124" s="15"/>
       <c r="AO124" s="15"/>
     </row>
-    <row r="125" hidden="1" spans="1:41">
+    <row r="125" spans="1:41">
       <c r="A125" s="7" t="s">
         <v>355</v>
       </c>
@@ -11611,7 +11603,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:41">
+    <row r="127" spans="1:41">
       <c r="A127" s="7" t="s">
         <v>361</v>
       </c>
@@ -11668,7 +11660,7 @@
       <c r="AN127" s="15"/>
       <c r="AO127" s="15"/>
     </row>
-    <row r="128" hidden="1" spans="1:41">
+    <row r="128" spans="1:41">
       <c r="A128" s="7" t="s">
         <v>364</v>
       </c>
@@ -11725,7 +11717,7 @@
       <c r="AN128" s="15"/>
       <c r="AO128" s="15"/>
     </row>
-    <row r="129" hidden="1" spans="1:41">
+    <row r="129" spans="1:41">
       <c r="A129" s="7" t="s">
         <v>366</v>
       </c>
@@ -11782,7 +11774,7 @@
       <c r="AN129" s="15"/>
       <c r="AO129" s="15"/>
     </row>
-    <row r="130" hidden="1" spans="1:41">
+    <row r="130" spans="1:41">
       <c r="A130" s="7" t="s">
         <v>369</v>
       </c>
@@ -11839,7 +11831,7 @@
       <c r="AN130" s="15"/>
       <c r="AO130" s="15"/>
     </row>
-    <row r="131" hidden="1" spans="1:41">
+    <row r="131" spans="1:41">
       <c r="A131" s="7" t="s">
         <v>372</v>
       </c>
@@ -11896,7 +11888,7 @@
       <c r="AN131" s="15"/>
       <c r="AO131" s="15"/>
     </row>
-    <row r="132" hidden="1" spans="1:41">
+    <row r="132" spans="1:41">
       <c r="A132" s="7" t="s">
         <v>375</v>
       </c>
@@ -11953,7 +11945,7 @@
       <c r="AN132" s="15"/>
       <c r="AO132" s="15"/>
     </row>
-    <row r="133" hidden="1" spans="1:41">
+    <row r="133" spans="1:41">
       <c r="A133" s="7" t="s">
         <v>377</v>
       </c>
@@ -12010,7 +12002,7 @@
       <c r="AN133" s="15"/>
       <c r="AO133" s="15"/>
     </row>
-    <row r="134" hidden="1" spans="1:41">
+    <row r="134" spans="1:41">
       <c r="A134" s="7" t="s">
         <v>379</v>
       </c>
@@ -12067,7 +12059,7 @@
       <c r="AN134" s="15"/>
       <c r="AO134" s="15"/>
     </row>
-    <row r="135" hidden="1" spans="1:41">
+    <row r="135" spans="1:41">
       <c r="A135" s="7" t="s">
         <v>381</v>
       </c>
@@ -12124,7 +12116,7 @@
       <c r="AN135" s="15"/>
       <c r="AO135" s="15"/>
     </row>
-    <row r="136" hidden="1" spans="1:41">
+    <row r="136" spans="1:41">
       <c r="A136" s="7" t="s">
         <v>383</v>
       </c>
@@ -12181,7 +12173,7 @@
       <c r="AN136" s="15"/>
       <c r="AO136" s="15"/>
     </row>
-    <row r="137" hidden="1" spans="1:41">
+    <row r="137" spans="1:41">
       <c r="A137" s="7" t="s">
         <v>385</v>
       </c>
@@ -12238,7 +12230,7 @@
       <c r="AN137" s="15"/>
       <c r="AO137" s="15"/>
     </row>
-    <row r="138" hidden="1" spans="1:41">
+    <row r="138" spans="1:41">
       <c r="A138" s="7" t="s">
         <v>388</v>
       </c>
@@ -12354,7 +12346,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:41">
+    <row r="140" spans="1:41">
       <c r="A140" s="7" t="s">
         <v>393</v>
       </c>
@@ -12411,7 +12403,7 @@
       <c r="AN140" s="15"/>
       <c r="AO140" s="15"/>
     </row>
-    <row r="141" hidden="1" spans="1:41">
+    <row r="141" spans="1:41">
       <c r="A141" s="7" t="s">
         <v>396</v>
       </c>
@@ -12468,7 +12460,7 @@
       <c r="AN141" s="15"/>
       <c r="AO141" s="15"/>
     </row>
-    <row r="142" hidden="1" spans="1:41">
+    <row r="142" spans="1:41">
       <c r="A142" s="7" t="s">
         <v>398</v>
       </c>
@@ -12525,7 +12517,7 @@
       <c r="AN142" s="15"/>
       <c r="AO142" s="15"/>
     </row>
-    <row r="143" hidden="1" spans="1:41">
+    <row r="143" spans="1:41">
       <c r="A143" s="7" t="s">
         <v>400</v>
       </c>
@@ -12582,7 +12574,7 @@
       <c r="AN143" s="15"/>
       <c r="AO143" s="15"/>
     </row>
-    <row r="144" hidden="1" spans="1:41">
+    <row r="144" spans="1:41">
       <c r="A144" s="7" t="s">
         <v>402</v>
       </c>
@@ -12639,7 +12631,7 @@
       <c r="AN144" s="15"/>
       <c r="AO144" s="15"/>
     </row>
-    <row r="145" hidden="1" spans="1:41">
+    <row r="145" spans="1:41">
       <c r="A145" s="7" t="s">
         <v>404</v>
       </c>
@@ -12696,7 +12688,7 @@
       <c r="AN145" s="15"/>
       <c r="AO145" s="15"/>
     </row>
-    <row r="146" hidden="1" spans="1:41">
+    <row r="146" spans="1:41">
       <c r="A146" s="7" t="s">
         <v>407</v>
       </c>
@@ -12753,7 +12745,7 @@
       <c r="AN146" s="15"/>
       <c r="AO146" s="15"/>
     </row>
-    <row r="147" hidden="1" spans="1:41">
+    <row r="147" spans="1:41">
       <c r="A147" s="7" t="s">
         <v>409</v>
       </c>
@@ -12810,7 +12802,7 @@
       <c r="AN147" s="15"/>
       <c r="AO147" s="15"/>
     </row>
-    <row r="148" hidden="1" spans="1:41">
+    <row r="148" spans="1:41">
       <c r="A148" s="7" t="s">
         <v>411</v>
       </c>
@@ -12867,7 +12859,7 @@
       <c r="AN148" s="15"/>
       <c r="AO148" s="15"/>
     </row>
-    <row r="149" hidden="1" spans="1:41">
+    <row r="149" spans="1:41">
       <c r="A149" s="7" t="s">
         <v>414</v>
       </c>
@@ -12924,7 +12916,7 @@
       <c r="AN149" s="15"/>
       <c r="AO149" s="15"/>
     </row>
-    <row r="150" hidden="1" spans="1:41">
+    <row r="150" spans="1:41">
       <c r="A150" s="7" t="s">
         <v>416</v>
       </c>
@@ -12981,7 +12973,7 @@
       <c r="AN150" s="15"/>
       <c r="AO150" s="15"/>
     </row>
-    <row r="151" hidden="1" spans="1:41">
+    <row r="151" spans="1:41">
       <c r="A151" s="7" t="s">
         <v>418</v>
       </c>
@@ -13038,7 +13030,7 @@
       <c r="AN151" s="15"/>
       <c r="AO151" s="15"/>
     </row>
-    <row r="152" hidden="1" spans="1:41">
+    <row r="152" spans="1:41">
       <c r="A152" s="7" t="s">
         <v>420</v>
       </c>
@@ -13095,7 +13087,7 @@
       <c r="AN152" s="15"/>
       <c r="AO152" s="15"/>
     </row>
-    <row r="153" hidden="1" spans="1:41">
+    <row r="153" spans="1:41">
       <c r="A153" s="7" t="s">
         <v>422</v>
       </c>
@@ -13152,7 +13144,7 @@
       <c r="AN153" s="15"/>
       <c r="AO153" s="15"/>
     </row>
-    <row r="154" hidden="1" spans="1:41">
+    <row r="154" spans="1:41">
       <c r="A154" s="7" t="s">
         <v>425</v>
       </c>
@@ -13209,7 +13201,7 @@
       <c r="AN154" s="15"/>
       <c r="AO154" s="15"/>
     </row>
-    <row r="155" hidden="1" spans="1:41">
+    <row r="155" spans="1:41">
       <c r="A155" s="7" t="s">
         <v>427</v>
       </c>
@@ -13266,7 +13258,7 @@
       <c r="AN155" s="15"/>
       <c r="AO155" s="15"/>
     </row>
-    <row r="156" hidden="1" spans="1:41">
+    <row r="156" spans="1:41">
       <c r="A156" s="7" t="s">
         <v>429</v>
       </c>
@@ -13323,7 +13315,7 @@
       <c r="AN156" s="15"/>
       <c r="AO156" s="15"/>
     </row>
-    <row r="157" hidden="1" spans="1:41">
+    <row r="157" spans="1:41">
       <c r="A157" s="7" t="s">
         <v>431</v>
       </c>
@@ -13380,7 +13372,7 @@
       <c r="AN157" s="15"/>
       <c r="AO157" s="15"/>
     </row>
-    <row r="158" hidden="1" spans="1:41">
+    <row r="158" spans="1:41">
       <c r="A158" s="7" t="s">
         <v>433</v>
       </c>
@@ -13437,7 +13429,7 @@
       <c r="AN158" s="15"/>
       <c r="AO158" s="15"/>
     </row>
-    <row r="159" hidden="1" spans="1:41">
+    <row r="159" spans="1:41">
       <c r="A159" s="7" t="s">
         <v>435</v>
       </c>
@@ -13494,7 +13486,7 @@
       <c r="AN159" s="15"/>
       <c r="AO159" s="15"/>
     </row>
-    <row r="160" hidden="1" spans="1:41">
+    <row r="160" spans="1:41">
       <c r="A160" s="7" t="s">
         <v>437</v>
       </c>
@@ -13551,7 +13543,7 @@
       <c r="AN160" s="15"/>
       <c r="AO160" s="15"/>
     </row>
-    <row r="161" hidden="1" spans="1:41">
+    <row r="161" spans="1:41">
       <c r="A161" s="7" t="s">
         <v>440</v>
       </c>
@@ -13608,7 +13600,7 @@
       <c r="AN161" s="15"/>
       <c r="AO161" s="15"/>
     </row>
-    <row r="162" hidden="1" spans="1:41">
+    <row r="162" spans="1:41">
       <c r="A162" s="7" t="s">
         <v>442</v>
       </c>
@@ -13665,7 +13657,7 @@
       <c r="AN162" s="15"/>
       <c r="AO162" s="15"/>
     </row>
-    <row r="163" hidden="1" spans="1:41">
+    <row r="163" spans="1:41">
       <c r="A163" s="7" t="s">
         <v>444</v>
       </c>
@@ -13722,7 +13714,7 @@
       <c r="AN163" s="15"/>
       <c r="AO163" s="15"/>
     </row>
-    <row r="164" hidden="1" spans="1:41">
+    <row r="164" spans="1:41">
       <c r="A164" s="7" t="s">
         <v>446</v>
       </c>
@@ -13779,7 +13771,7 @@
       <c r="AN164" s="15"/>
       <c r="AO164" s="15"/>
     </row>
-    <row r="165" hidden="1" spans="1:41">
+    <row r="165" spans="1:41">
       <c r="A165" s="7" t="s">
         <v>448</v>
       </c>
@@ -13836,7 +13828,7 @@
       <c r="AN165" s="15"/>
       <c r="AO165" s="15"/>
     </row>
-    <row r="166" hidden="1" spans="1:41">
+    <row r="166" spans="1:41">
       <c r="A166" s="7" t="s">
         <v>450</v>
       </c>
@@ -13893,7 +13885,7 @@
       <c r="AN166" s="15"/>
       <c r="AO166" s="15"/>
     </row>
-    <row r="167" hidden="1" spans="1:41">
+    <row r="167" spans="1:41">
       <c r="A167" s="7" t="s">
         <v>453</v>
       </c>
@@ -14009,7 +14001,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:41">
+    <row r="169" spans="1:41">
       <c r="A169" s="7" t="s">
         <v>457</v>
       </c>
@@ -14066,7 +14058,7 @@
       <c r="AN169" s="15"/>
       <c r="AO169" s="15"/>
     </row>
-    <row r="170" hidden="1" spans="1:41">
+    <row r="170" spans="1:41">
       <c r="A170" s="7" t="s">
         <v>459</v>
       </c>
@@ -14123,7 +14115,7 @@
       <c r="AN170" s="15"/>
       <c r="AO170" s="15"/>
     </row>
-    <row r="171" hidden="1" spans="1:41">
+    <row r="171" spans="1:41">
       <c r="A171" s="7" t="s">
         <v>461</v>
       </c>
@@ -14180,7 +14172,7 @@
       <c r="AN171" s="15"/>
       <c r="AO171" s="15"/>
     </row>
-    <row r="172" hidden="1" spans="1:41">
+    <row r="172" spans="1:41">
       <c r="A172" s="7" t="s">
         <v>463</v>
       </c>
@@ -14237,7 +14229,7 @@
       <c r="AN172" s="15"/>
       <c r="AO172" s="15"/>
     </row>
-    <row r="173" hidden="1" spans="1:41">
+    <row r="173" spans="1:41">
       <c r="A173" s="7" t="s">
         <v>465</v>
       </c>
@@ -14294,7 +14286,7 @@
       <c r="AN173" s="15"/>
       <c r="AO173" s="15"/>
     </row>
-    <row r="174" hidden="1" spans="1:41">
+    <row r="174" spans="1:41">
       <c r="A174" s="7" t="s">
         <v>467</v>
       </c>
@@ -14351,7 +14343,7 @@
       <c r="AN174" s="15"/>
       <c r="AO174" s="15"/>
     </row>
-    <row r="175" hidden="1" spans="1:41">
+    <row r="175" spans="1:41">
       <c r="A175" s="7" t="s">
         <v>469</v>
       </c>
@@ -14408,7 +14400,7 @@
       <c r="AN175" s="15"/>
       <c r="AO175" s="15"/>
     </row>
-    <row r="176" hidden="1" spans="1:41">
+    <row r="176" spans="1:41">
       <c r="A176" s="7" t="s">
         <v>472</v>
       </c>
@@ -14465,7 +14457,7 @@
       <c r="AN176" s="15"/>
       <c r="AO176" s="15"/>
     </row>
-    <row r="177" hidden="1" spans="1:41">
+    <row r="177" spans="1:41">
       <c r="A177" s="7" t="s">
         <v>475</v>
       </c>
@@ -14522,7 +14514,7 @@
       <c r="AN177" s="15"/>
       <c r="AO177" s="15"/>
     </row>
-    <row r="178" hidden="1" spans="1:41">
+    <row r="178" spans="1:41">
       <c r="A178" s="7" t="s">
         <v>477</v>
       </c>
@@ -14579,7 +14571,7 @@
       <c r="AN178" s="15"/>
       <c r="AO178" s="15"/>
     </row>
-    <row r="179" hidden="1" spans="1:41">
+    <row r="179" spans="1:41">
       <c r="A179" s="7" t="s">
         <v>479</v>
       </c>
@@ -14636,7 +14628,7 @@
       <c r="AN179" s="15"/>
       <c r="AO179" s="15"/>
     </row>
-    <row r="180" hidden="1" spans="1:41">
+    <row r="180" spans="1:41">
       <c r="A180" s="7" t="s">
         <v>481</v>
       </c>
@@ -14693,7 +14685,7 @@
       <c r="AN180" s="15"/>
       <c r="AO180" s="15"/>
     </row>
-    <row r="181" hidden="1" spans="1:41">
+    <row r="181" spans="1:41">
       <c r="A181" s="7" t="s">
         <v>484</v>
       </c>
@@ -14750,7 +14742,7 @@
       <c r="AN181" s="15"/>
       <c r="AO181" s="15"/>
     </row>
-    <row r="182" hidden="1" spans="1:41">
+    <row r="182" spans="1:41">
       <c r="A182" s="7" t="s">
         <v>486</v>
       </c>
@@ -14807,7 +14799,7 @@
       <c r="AN182" s="15"/>
       <c r="AO182" s="15"/>
     </row>
-    <row r="183" hidden="1" spans="1:41">
+    <row r="183" spans="1:41">
       <c r="A183" s="7" t="s">
         <v>488</v>
       </c>
@@ -14864,7 +14856,7 @@
       <c r="AN183" s="15"/>
       <c r="AO183" s="15"/>
     </row>
-    <row r="184" hidden="1" spans="1:41">
+    <row r="184" spans="1:41">
       <c r="A184" s="7" t="s">
         <v>490</v>
       </c>
@@ -14921,7 +14913,7 @@
       <c r="AN184" s="15"/>
       <c r="AO184" s="15"/>
     </row>
-    <row r="185" hidden="1" spans="1:41">
+    <row r="185" spans="1:41">
       <c r="A185" s="7" t="s">
         <v>492</v>
       </c>
@@ -15078,7 +15070,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:41">
+    <row r="187" spans="1:41">
       <c r="A187" s="7" t="s">
         <v>497</v>
       </c>
@@ -15135,7 +15127,7 @@
       <c r="AN187" s="15"/>
       <c r="AO187" s="15"/>
     </row>
-    <row r="188" hidden="1" spans="1:41">
+    <row r="188" spans="1:41">
       <c r="A188" s="7" t="s">
         <v>499</v>
       </c>
@@ -15192,7 +15184,7 @@
       <c r="AN188" s="15"/>
       <c r="AO188" s="15"/>
     </row>
-    <row r="189" hidden="1" spans="1:41">
+    <row r="189" spans="1:41">
       <c r="A189" s="7" t="s">
         <v>502</v>
       </c>
@@ -15249,7 +15241,7 @@
       <c r="AN189" s="15"/>
       <c r="AO189" s="15"/>
     </row>
-    <row r="190" hidden="1" spans="1:41">
+    <row r="190" spans="1:41">
       <c r="A190" s="7" t="s">
         <v>504</v>
       </c>
@@ -15306,7 +15298,7 @@
       <c r="AN190" s="15"/>
       <c r="AO190" s="15"/>
     </row>
-    <row r="191" hidden="1" spans="1:41">
+    <row r="191" spans="1:41">
       <c r="A191" s="7" t="s">
         <v>507</v>
       </c>
@@ -15422,7 +15414,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:41">
+    <row r="193" spans="1:41">
       <c r="A193" s="7" t="s">
         <v>511</v>
       </c>
@@ -15479,7 +15471,7 @@
       <c r="AN193" s="15"/>
       <c r="AO193" s="15"/>
     </row>
-    <row r="194" hidden="1" spans="1:41">
+    <row r="194" spans="1:41">
       <c r="A194" s="7" t="s">
         <v>513</v>
       </c>
@@ -15536,7 +15528,7 @@
       <c r="AN194" s="15"/>
       <c r="AO194" s="15"/>
     </row>
-    <row r="195" hidden="1" spans="1:41">
+    <row r="195" spans="1:41">
       <c r="A195" s="7" t="s">
         <v>515</v>
       </c>
@@ -15593,7 +15585,7 @@
       <c r="AN195" s="15"/>
       <c r="AO195" s="15"/>
     </row>
-    <row r="196" hidden="1" spans="1:41">
+    <row r="196" spans="1:41">
       <c r="A196" s="7" t="s">
         <v>517</v>
       </c>
@@ -15650,7 +15642,7 @@
       <c r="AN196" s="15"/>
       <c r="AO196" s="15"/>
     </row>
-    <row r="197" hidden="1" spans="1:41">
+    <row r="197" spans="1:41">
       <c r="A197" s="7" t="s">
         <v>519</v>
       </c>
@@ -15707,7 +15699,7 @@
       <c r="AN197" s="15"/>
       <c r="AO197" s="15"/>
     </row>
-    <row r="198" hidden="1" spans="1:41">
+    <row r="198" spans="1:41">
       <c r="A198" s="7" t="s">
         <v>522</v>
       </c>
@@ -15931,7 +15923,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:41">
+    <row r="201" spans="1:41">
       <c r="A201" s="7" t="s">
         <v>530</v>
       </c>
@@ -15988,7 +15980,7 @@
       <c r="AN201" s="15"/>
       <c r="AO201" s="15"/>
     </row>
-    <row r="202" hidden="1" spans="1:41">
+    <row r="202" spans="1:41">
       <c r="A202" s="7" t="s">
         <v>533</v>
       </c>
@@ -16045,7 +16037,7 @@
       <c r="AN202" s="15"/>
       <c r="AO202" s="15"/>
     </row>
-    <row r="203" hidden="1" spans="1:41">
+    <row r="203" spans="1:41">
       <c r="A203" s="7" t="s">
         <v>535</v>
       </c>
@@ -16102,7 +16094,7 @@
       <c r="AN203" s="15"/>
       <c r="AO203" s="15"/>
     </row>
-    <row r="204" hidden="1" spans="1:41">
+    <row r="204" spans="1:41">
       <c r="A204" s="7" t="s">
         <v>537</v>
       </c>
@@ -16159,7 +16151,7 @@
       <c r="AN204" s="15"/>
       <c r="AO204" s="15"/>
     </row>
-    <row r="205" hidden="1" spans="1:41">
+    <row r="205" spans="1:41">
       <c r="A205" s="7" t="s">
         <v>540</v>
       </c>
@@ -16216,7 +16208,7 @@
       <c r="AN205" s="15"/>
       <c r="AO205" s="15"/>
     </row>
-    <row r="206" hidden="1" spans="1:41">
+    <row r="206" spans="1:41">
       <c r="A206" s="7" t="s">
         <v>542</v>
       </c>
@@ -16273,7 +16265,7 @@
       <c r="AN206" s="15"/>
       <c r="AO206" s="15"/>
     </row>
-    <row r="207" hidden="1" spans="1:41">
+    <row r="207" spans="1:41">
       <c r="A207" s="7" t="s">
         <v>544</v>
       </c>
@@ -16330,7 +16322,7 @@
       <c r="AN207" s="15"/>
       <c r="AO207" s="15"/>
     </row>
-    <row r="208" hidden="1" spans="1:41">
+    <row r="208" spans="1:41">
       <c r="A208" s="7" t="s">
         <v>546</v>
       </c>
@@ -16387,7 +16379,7 @@
       <c r="AN208" s="15"/>
       <c r="AO208" s="15"/>
     </row>
-    <row r="209" hidden="1" spans="1:41">
+    <row r="209" spans="1:41">
       <c r="A209" s="7" t="s">
         <v>548</v>
       </c>
@@ -16444,7 +16436,7 @@
       <c r="AN209" s="15"/>
       <c r="AO209" s="15"/>
     </row>
-    <row r="210" hidden="1" spans="1:41">
+    <row r="210" spans="1:41">
       <c r="A210" s="7" t="s">
         <v>551</v>
       </c>
@@ -16501,7 +16493,7 @@
       <c r="AN210" s="15"/>
       <c r="AO210" s="15"/>
     </row>
-    <row r="211" hidden="1" spans="1:41">
+    <row r="211" spans="1:41">
       <c r="A211" s="7" t="s">
         <v>553</v>
       </c>
@@ -16558,7 +16550,7 @@
       <c r="AN211" s="15"/>
       <c r="AO211" s="15"/>
     </row>
-    <row r="212" hidden="1" spans="1:41">
+    <row r="212" spans="1:41">
       <c r="A212" s="7" t="s">
         <v>555</v>
       </c>
@@ -16615,7 +16607,7 @@
       <c r="AN212" s="15"/>
       <c r="AO212" s="15"/>
     </row>
-    <row r="213" hidden="1" spans="1:41">
+    <row r="213" spans="1:41">
       <c r="A213" s="7" t="s">
         <v>557</v>
       </c>
@@ -16731,7 +16723,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:41">
+    <row r="215" spans="1:41">
       <c r="A215" s="7" t="s">
         <v>561</v>
       </c>
@@ -16788,7 +16780,7 @@
       <c r="AN215" s="15"/>
       <c r="AO215" s="15"/>
     </row>
-    <row r="216" hidden="1" spans="1:41">
+    <row r="216" spans="1:41">
       <c r="A216" s="7" t="s">
         <v>564</v>
       </c>
@@ -16845,7 +16837,7 @@
       <c r="AN216" s="15"/>
       <c r="AO216" s="15"/>
     </row>
-    <row r="217" hidden="1" spans="1:41">
+    <row r="217" spans="1:41">
       <c r="A217" s="7" t="s">
         <v>566</v>
       </c>
@@ -16902,7 +16894,7 @@
       <c r="AN217" s="15"/>
       <c r="AO217" s="15"/>
     </row>
-    <row r="218" hidden="1" spans="1:41">
+    <row r="218" spans="1:41">
       <c r="A218" s="7" t="s">
         <v>568</v>
       </c>
@@ -17018,7 +17010,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:41">
+    <row r="220" spans="1:41">
       <c r="A220" s="7" t="s">
         <v>573</v>
       </c>
@@ -17075,7 +17067,7 @@
       <c r="AN220" s="15"/>
       <c r="AO220" s="15"/>
     </row>
-    <row r="221" hidden="1" spans="1:41">
+    <row r="221" spans="1:41">
       <c r="A221" s="7" t="s">
         <v>576</v>
       </c>
@@ -17132,7 +17124,7 @@
       <c r="AN221" s="15"/>
       <c r="AO221" s="15"/>
     </row>
-    <row r="222" hidden="1" spans="1:41">
+    <row r="222" spans="1:41">
       <c r="A222" s="7" t="s">
         <v>578</v>
       </c>
@@ -17189,7 +17181,7 @@
       <c r="AN222" s="15"/>
       <c r="AO222" s="15"/>
     </row>
-    <row r="223" hidden="1" spans="1:41">
+    <row r="223" spans="1:41">
       <c r="A223" s="7" t="s">
         <v>580</v>
       </c>
@@ -17246,7 +17238,7 @@
       <c r="AN223" s="15"/>
       <c r="AO223" s="15"/>
     </row>
-    <row r="224" hidden="1" spans="1:41">
+    <row r="224" spans="1:41">
       <c r="A224" s="7" t="s">
         <v>582</v>
       </c>
@@ -17303,7 +17295,7 @@
       <c r="AN224" s="15"/>
       <c r="AO224" s="15"/>
     </row>
-    <row r="225" hidden="1" spans="1:41">
+    <row r="225" spans="1:41">
       <c r="A225" s="7" t="s">
         <v>584</v>
       </c>
@@ -17360,7 +17352,7 @@
       <c r="AN225" s="15"/>
       <c r="AO225" s="15"/>
     </row>
-    <row r="226" hidden="1" spans="1:41">
+    <row r="226" spans="1:41">
       <c r="A226" s="7" t="s">
         <v>586</v>
       </c>
@@ -17417,7 +17409,7 @@
       <c r="AN226" s="15"/>
       <c r="AO226" s="15"/>
     </row>
-    <row r="227" hidden="1" spans="1:41">
+    <row r="227" spans="1:41">
       <c r="A227" s="7" t="s">
         <v>588</v>
       </c>
@@ -17474,7 +17466,7 @@
       <c r="AN227" s="15"/>
       <c r="AO227" s="15"/>
     </row>
-    <row r="228" hidden="1" spans="1:41">
+    <row r="228" spans="1:41">
       <c r="A228" s="7" t="s">
         <v>590</v>
       </c>
@@ -17531,7 +17523,7 @@
       <c r="AN228" s="15"/>
       <c r="AO228" s="15"/>
     </row>
-    <row r="229" hidden="1" spans="1:41">
+    <row r="229" spans="1:41">
       <c r="A229" s="7" t="s">
         <v>592</v>
       </c>
@@ -17588,7 +17580,7 @@
       <c r="AN229" s="15"/>
       <c r="AO229" s="15"/>
     </row>
-    <row r="230" hidden="1" spans="1:41">
+    <row r="230" spans="1:41">
       <c r="A230" s="7" t="s">
         <v>595</v>
       </c>
@@ -17645,7 +17637,7 @@
       <c r="AN230" s="15"/>
       <c r="AO230" s="15"/>
     </row>
-    <row r="231" hidden="1" spans="1:41">
+    <row r="231" spans="1:41">
       <c r="A231" s="7" t="s">
         <v>597</v>
       </c>
@@ -17702,7 +17694,7 @@
       <c r="AN231" s="15"/>
       <c r="AO231" s="15"/>
     </row>
-    <row r="232" hidden="1" spans="1:41">
+    <row r="232" spans="1:41">
       <c r="A232" s="7" t="s">
         <v>600</v>
       </c>
@@ -17759,7 +17751,7 @@
       <c r="AN232" s="15"/>
       <c r="AO232" s="15"/>
     </row>
-    <row r="233" hidden="1" spans="1:41">
+    <row r="233" spans="1:41">
       <c r="A233" s="7" t="s">
         <v>602</v>
       </c>
@@ -17816,7 +17808,7 @@
       <c r="AN233" s="15"/>
       <c r="AO233" s="15"/>
     </row>
-    <row r="234" hidden="1" spans="1:41">
+    <row r="234" spans="1:41">
       <c r="A234" s="7" t="s">
         <v>604</v>
       </c>
@@ -17966,7 +17958,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:41">
+    <row r="236" spans="1:41">
       <c r="A236" s="7" t="s">
         <v>610</v>
       </c>
@@ -18023,7 +18015,7 @@
       <c r="AN236" s="15"/>
       <c r="AO236" s="15"/>
     </row>
-    <row r="237" hidden="1" spans="1:41">
+    <row r="237" spans="1:41">
       <c r="A237" s="7" t="s">
         <v>613</v>
       </c>
@@ -18080,7 +18072,7 @@
       <c r="AN237" s="15"/>
       <c r="AO237" s="15"/>
     </row>
-    <row r="238" hidden="1" spans="1:41">
+    <row r="238" spans="1:41">
       <c r="A238" s="7" t="s">
         <v>615</v>
       </c>
@@ -18137,7 +18129,7 @@
       <c r="AN238" s="15"/>
       <c r="AO238" s="15"/>
     </row>
-    <row r="239" hidden="1" spans="1:41">
+    <row r="239" spans="1:41">
       <c r="A239" s="7" t="s">
         <v>617</v>
       </c>
@@ -18194,7 +18186,7 @@
       <c r="AN239" s="15"/>
       <c r="AO239" s="15"/>
     </row>
-    <row r="240" hidden="1" spans="1:41">
+    <row r="240" spans="1:41">
       <c r="A240" s="7" t="s">
         <v>619</v>
       </c>
@@ -18251,7 +18243,7 @@
       <c r="AN240" s="15"/>
       <c r="AO240" s="15"/>
     </row>
-    <row r="241" hidden="1" spans="1:41">
+    <row r="241" spans="1:41">
       <c r="A241" s="7" t="s">
         <v>622</v>
       </c>
@@ -18308,7 +18300,7 @@
       <c r="AN241" s="15"/>
       <c r="AO241" s="15"/>
     </row>
-    <row r="242" hidden="1" spans="1:41">
+    <row r="242" spans="1:41">
       <c r="A242" s="7" t="s">
         <v>624</v>
       </c>
@@ -18365,7 +18357,7 @@
       <c r="AN242" s="15"/>
       <c r="AO242" s="15"/>
     </row>
-    <row r="243" hidden="1" spans="1:41">
+    <row r="243" spans="1:41">
       <c r="A243" s="7" t="s">
         <v>627</v>
       </c>
@@ -18422,7 +18414,7 @@
       <c r="AN243" s="15"/>
       <c r="AO243" s="15"/>
     </row>
-    <row r="244" hidden="1" spans="1:41">
+    <row r="244" spans="1:41">
       <c r="A244" s="7" t="s">
         <v>629</v>
       </c>
@@ -18479,7 +18471,7 @@
       <c r="AN244" s="15"/>
       <c r="AO244" s="15"/>
     </row>
-    <row r="245" hidden="1" spans="1:41">
+    <row r="245" spans="1:41">
       <c r="A245" s="7" t="s">
         <v>631</v>
       </c>
@@ -18536,7 +18528,7 @@
       <c r="AN245" s="15"/>
       <c r="AO245" s="15"/>
     </row>
-    <row r="246" hidden="1" spans="1:41">
+    <row r="246" spans="1:41">
       <c r="A246" s="7" t="s">
         <v>634</v>
       </c>
@@ -18593,7 +18585,7 @@
       <c r="AN246" s="15"/>
       <c r="AO246" s="15"/>
     </row>
-    <row r="247" hidden="1" spans="1:41">
+    <row r="247" spans="1:41">
       <c r="A247" s="7" t="s">
         <v>637</v>
       </c>
@@ -18650,7 +18642,7 @@
       <c r="AN247" s="15"/>
       <c r="AO247" s="15"/>
     </row>
-    <row r="248" hidden="1" spans="1:41">
+    <row r="248" spans="1:41">
       <c r="A248" s="7" t="s">
         <v>639</v>
       </c>
@@ -18707,7 +18699,7 @@
       <c r="AN248" s="15"/>
       <c r="AO248" s="15"/>
     </row>
-    <row r="249" hidden="1" spans="1:41">
+    <row r="249" spans="1:41">
       <c r="A249" s="7" t="s">
         <v>641</v>
       </c>
@@ -18764,7 +18756,7 @@
       <c r="AN249" s="15"/>
       <c r="AO249" s="15"/>
     </row>
-    <row r="250" hidden="1" spans="1:41">
+    <row r="250" spans="1:41">
       <c r="A250" s="7" t="s">
         <v>643</v>
       </c>
@@ -18821,7 +18813,7 @@
       <c r="AN250" s="15"/>
       <c r="AO250" s="15"/>
     </row>
-    <row r="251" hidden="1" spans="1:41">
+    <row r="251" spans="1:41">
       <c r="A251" s="7" t="s">
         <v>645</v>
       </c>
@@ -18878,7 +18870,7 @@
       <c r="AN251" s="15"/>
       <c r="AO251" s="15"/>
     </row>
-    <row r="252" hidden="1" spans="1:41">
+    <row r="252" spans="1:41">
       <c r="A252" s="7" t="s">
         <v>648</v>
       </c>
@@ -18935,7 +18927,7 @@
       <c r="AN252" s="15"/>
       <c r="AO252" s="15"/>
     </row>
-    <row r="253" hidden="1" spans="1:41">
+    <row r="253" spans="1:41">
       <c r="A253" s="7" t="s">
         <v>651</v>
       </c>
@@ -18992,7 +18984,7 @@
       <c r="AN253" s="15"/>
       <c r="AO253" s="15"/>
     </row>
-    <row r="254" hidden="1" spans="1:41">
+    <row r="254" spans="1:41">
       <c r="A254" s="7" t="s">
         <v>653</v>
       </c>
@@ -19049,7 +19041,7 @@
       <c r="AN254" s="15"/>
       <c r="AO254" s="15"/>
     </row>
-    <row r="255" hidden="1" spans="1:41">
+    <row r="255" spans="1:41">
       <c r="A255" s="7" t="s">
         <v>655</v>
       </c>
@@ -19106,7 +19098,7 @@
       <c r="AN255" s="15"/>
       <c r="AO255" s="15"/>
     </row>
-    <row r="256" hidden="1" spans="1:41">
+    <row r="256" spans="1:41">
       <c r="A256" s="7" t="s">
         <v>657</v>
       </c>
@@ -19163,7 +19155,7 @@
       <c r="AN256" s="15"/>
       <c r="AO256" s="15"/>
     </row>
-    <row r="257" hidden="1" spans="1:41">
+    <row r="257" spans="1:41">
       <c r="A257" s="7" t="s">
         <v>659</v>
       </c>
@@ -19220,7 +19212,7 @@
       <c r="AN257" s="15"/>
       <c r="AO257" s="15"/>
     </row>
-    <row r="258" hidden="1" spans="1:41">
+    <row r="258" spans="1:41">
       <c r="A258" s="7" t="s">
         <v>661</v>
       </c>
@@ -19277,7 +19269,7 @@
       <c r="AN258" s="15"/>
       <c r="AO258" s="15"/>
     </row>
-    <row r="259" hidden="1" spans="1:41">
+    <row r="259" spans="1:41">
       <c r="A259" s="7" t="s">
         <v>663</v>
       </c>
@@ -19334,7 +19326,7 @@
       <c r="AN259" s="15"/>
       <c r="AO259" s="15"/>
     </row>
-    <row r="260" hidden="1" spans="1:41">
+    <row r="260" spans="1:41">
       <c r="A260" s="7" t="s">
         <v>666</v>
       </c>
@@ -19391,7 +19383,7 @@
       <c r="AN260" s="15"/>
       <c r="AO260" s="15"/>
     </row>
-    <row r="261" hidden="1" spans="1:41">
+    <row r="261" spans="1:41">
       <c r="A261" s="7" t="s">
         <v>669</v>
       </c>
@@ -19448,7 +19440,7 @@
       <c r="AN261" s="15"/>
       <c r="AO261" s="15"/>
     </row>
-    <row r="262" hidden="1" spans="1:41">
+    <row r="262" spans="1:41">
       <c r="A262" s="7" t="s">
         <v>671</v>
       </c>
@@ -19505,7 +19497,7 @@
       <c r="AN262" s="15"/>
       <c r="AO262" s="15"/>
     </row>
-    <row r="263" hidden="1" spans="1:41">
+    <row r="263" spans="1:41">
       <c r="A263" s="7" t="s">
         <v>673</v>
       </c>
@@ -19669,7 +19661,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:41">
+    <row r="265" spans="1:41">
       <c r="A265" s="7" t="s">
         <v>678</v>
       </c>
@@ -19726,7 +19718,7 @@
       <c r="AN265" s="15"/>
       <c r="AO265" s="15"/>
     </row>
-    <row r="266" hidden="1" spans="1:41">
+    <row r="266" spans="1:41">
       <c r="A266" s="7" t="s">
         <v>680</v>
       </c>
@@ -19783,7 +19775,7 @@
       <c r="AN266" s="15"/>
       <c r="AO266" s="15"/>
     </row>
-    <row r="267" hidden="1" spans="1:41">
+    <row r="267" spans="1:41">
       <c r="A267" s="7" t="s">
         <v>683</v>
       </c>
@@ -19840,7 +19832,7 @@
       <c r="AN267" s="15"/>
       <c r="AO267" s="15"/>
     </row>
-    <row r="268" hidden="1" spans="1:41">
+    <row r="268" spans="1:41">
       <c r="A268" s="7" t="s">
         <v>685</v>
       </c>
@@ -19897,7 +19889,7 @@
       <c r="AN268" s="15"/>
       <c r="AO268" s="15"/>
     </row>
-    <row r="269" hidden="1" spans="1:41">
+    <row r="269" spans="1:41">
       <c r="A269" s="7" t="s">
         <v>687</v>
       </c>
@@ -19954,7 +19946,7 @@
       <c r="AN269" s="15"/>
       <c r="AO269" s="15"/>
     </row>
-    <row r="270" hidden="1" spans="1:41">
+    <row r="270" spans="1:41">
       <c r="A270" s="7" t="s">
         <v>689</v>
       </c>
@@ -20070,7 +20062,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:41">
+    <row r="272" spans="1:41">
       <c r="A272" s="7" t="s">
         <v>693</v>
       </c>
@@ -20127,7 +20119,7 @@
       <c r="AN272" s="15"/>
       <c r="AO272" s="15"/>
     </row>
-    <row r="273" hidden="1" spans="1:41">
+    <row r="273" spans="1:41">
       <c r="A273" s="7" t="s">
         <v>696</v>
       </c>
@@ -20263,7 +20255,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:41">
+    <row r="275" spans="1:41">
       <c r="A275" s="7" t="s">
         <v>702</v>
       </c>
@@ -20320,7 +20312,7 @@
       <c r="AN275" s="15"/>
       <c r="AO275" s="15"/>
     </row>
-    <row r="276" hidden="1" spans="1:41">
+    <row r="276" spans="1:41">
       <c r="A276" s="7" t="s">
         <v>704</v>
       </c>
@@ -20377,7 +20369,7 @@
       <c r="AN276" s="15"/>
       <c r="AO276" s="15"/>
     </row>
-    <row r="277" hidden="1" spans="1:41">
+    <row r="277" spans="1:41">
       <c r="A277" s="7" t="s">
         <v>706</v>
       </c>
@@ -20434,7 +20426,7 @@
       <c r="AN277" s="15"/>
       <c r="AO277" s="15"/>
     </row>
-    <row r="278" hidden="1" spans="1:41">
+    <row r="278" spans="1:41">
       <c r="A278" s="7" t="s">
         <v>708</v>
       </c>
@@ -20491,7 +20483,7 @@
       <c r="AN278" s="15"/>
       <c r="AO278" s="15"/>
     </row>
-    <row r="279" hidden="1" spans="1:41">
+    <row r="279" spans="1:41">
       <c r="A279" s="7" t="s">
         <v>710</v>
       </c>
@@ -20607,7 +20599,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:41">
+    <row r="281" spans="1:41">
       <c r="A281" s="7" t="s">
         <v>714</v>
       </c>
@@ -20664,7 +20656,7 @@
       <c r="AN281" s="15"/>
       <c r="AO281" s="15"/>
     </row>
-    <row r="282" hidden="1" spans="1:41">
+    <row r="282" spans="1:41">
       <c r="A282" s="7" t="s">
         <v>716</v>
       </c>
@@ -20721,7 +20713,7 @@
       <c r="AN282" s="15"/>
       <c r="AO282" s="15"/>
     </row>
-    <row r="283" hidden="1" spans="1:41">
+    <row r="283" spans="1:41">
       <c r="A283" s="7" t="s">
         <v>718</v>
       </c>
@@ -20778,7 +20770,7 @@
       <c r="AN283" s="15"/>
       <c r="AO283" s="15"/>
     </row>
-    <row r="284" hidden="1" spans="1:41">
+    <row r="284" spans="1:41">
       <c r="A284" s="7" t="s">
         <v>720</v>
       </c>
@@ -20835,7 +20827,7 @@
       <c r="AN284" s="15"/>
       <c r="AO284" s="15"/>
     </row>
-    <row r="285" hidden="1" spans="1:41">
+    <row r="285" spans="1:41">
       <c r="A285" s="7" t="s">
         <v>722</v>
       </c>
@@ -20892,7 +20884,7 @@
       <c r="AN285" s="15"/>
       <c r="AO285" s="15"/>
     </row>
-    <row r="286" hidden="1" spans="1:41">
+    <row r="286" spans="1:41">
       <c r="A286" s="7" t="s">
         <v>724</v>
       </c>
@@ -20949,7 +20941,7 @@
       <c r="AN286" s="15"/>
       <c r="AO286" s="15"/>
     </row>
-    <row r="287" hidden="1" spans="1:41">
+    <row r="287" spans="1:41">
       <c r="A287" s="7" t="s">
         <v>727</v>
       </c>
@@ -21006,7 +20998,7 @@
       <c r="AN287" s="15"/>
       <c r="AO287" s="15"/>
     </row>
-    <row r="288" hidden="1" spans="1:41">
+    <row r="288" spans="1:41">
       <c r="A288" s="7" t="s">
         <v>729</v>
       </c>
@@ -21063,7 +21055,7 @@
       <c r="AN288" s="15"/>
       <c r="AO288" s="15"/>
     </row>
-    <row r="289" hidden="1" spans="1:41">
+    <row r="289" spans="1:41">
       <c r="A289" s="7" t="s">
         <v>731</v>
       </c>
@@ -21120,7 +21112,7 @@
       <c r="AN289" s="15"/>
       <c r="AO289" s="15"/>
     </row>
-    <row r="290" hidden="1" spans="1:41">
+    <row r="290" spans="1:41">
       <c r="A290" s="7" t="s">
         <v>733</v>
       </c>
@@ -21177,7 +21169,7 @@
       <c r="AN290" s="15"/>
       <c r="AO290" s="15"/>
     </row>
-    <row r="291" hidden="1" spans="1:41">
+    <row r="291" spans="1:41">
       <c r="A291" s="7" t="s">
         <v>735</v>
       </c>
@@ -21234,7 +21226,7 @@
       <c r="AN291" s="15"/>
       <c r="AO291" s="15"/>
     </row>
-    <row r="292" hidden="1" spans="1:41">
+    <row r="292" spans="1:41">
       <c r="A292" s="7" t="s">
         <v>737</v>
       </c>
@@ -21291,7 +21283,7 @@
       <c r="AN292" s="15"/>
       <c r="AO292" s="15"/>
     </row>
-    <row r="293" hidden="1" spans="1:41">
+    <row r="293" spans="1:41">
       <c r="A293" s="7" t="s">
         <v>740</v>
       </c>
@@ -21348,7 +21340,7 @@
       <c r="AN293" s="15"/>
       <c r="AO293" s="15"/>
     </row>
-    <row r="294" hidden="1" spans="1:41">
+    <row r="294" spans="1:41">
       <c r="A294" s="7" t="s">
         <v>743</v>
       </c>
@@ -21491,7 +21483,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:41">
+    <row r="296" spans="1:41">
       <c r="A296" s="7" t="s">
         <v>748</v>
       </c>
@@ -21548,7 +21540,7 @@
       <c r="AN296" s="15"/>
       <c r="AO296" s="15"/>
     </row>
-    <row r="297" hidden="1" spans="1:41">
+    <row r="297" spans="1:41">
       <c r="A297" s="7" t="s">
         <v>750</v>
       </c>
@@ -21605,7 +21597,7 @@
       <c r="AN297" s="15"/>
       <c r="AO297" s="15"/>
     </row>
-    <row r="298" hidden="1" spans="1:41">
+    <row r="298" spans="1:41">
       <c r="A298" s="7" t="s">
         <v>752</v>
       </c>
@@ -21662,7 +21654,7 @@
       <c r="AN298" s="15"/>
       <c r="AO298" s="15"/>
     </row>
-    <row r="299" hidden="1" spans="1:41">
+    <row r="299" spans="1:41">
       <c r="A299" s="7" t="s">
         <v>754</v>
       </c>
@@ -21719,7 +21711,7 @@
       <c r="AN299" s="15"/>
       <c r="AO299" s="15"/>
     </row>
-    <row r="300" hidden="1" spans="1:41">
+    <row r="300" spans="1:41">
       <c r="A300" s="7" t="s">
         <v>756</v>
       </c>
@@ -21776,7 +21768,7 @@
       <c r="AN300" s="15"/>
       <c r="AO300" s="15"/>
     </row>
-    <row r="301" hidden="1" spans="1:41">
+    <row r="301" spans="1:41">
       <c r="A301" s="7" t="s">
         <v>759</v>
       </c>
@@ -21833,7 +21825,7 @@
       <c r="AN301" s="15"/>
       <c r="AO301" s="15"/>
     </row>
-    <row r="302" hidden="1" spans="1:41">
+    <row r="302" spans="1:41">
       <c r="A302" s="7" t="s">
         <v>761</v>
       </c>
@@ -21993,7 +21985,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:41">
+    <row r="304" spans="1:41">
       <c r="A304" s="7" t="s">
         <v>765</v>
       </c>
@@ -22050,7 +22042,7 @@
       <c r="AN304" s="15"/>
       <c r="AO304" s="15"/>
     </row>
-    <row r="305" hidden="1" spans="1:41">
+    <row r="305" spans="1:41">
       <c r="A305" s="7" t="s">
         <v>768</v>
       </c>
@@ -22107,7 +22099,7 @@
       <c r="AN305" s="15"/>
       <c r="AO305" s="15"/>
     </row>
-    <row r="306" hidden="1" spans="1:41">
+    <row r="306" spans="1:41">
       <c r="A306" s="7" t="s">
         <v>770</v>
       </c>
@@ -22164,7 +22156,7 @@
       <c r="AN306" s="15"/>
       <c r="AO306" s="15"/>
     </row>
-    <row r="307" hidden="1" spans="1:41">
+    <row r="307" spans="1:41">
       <c r="A307" s="7" t="s">
         <v>772</v>
       </c>
@@ -22221,7 +22213,7 @@
       <c r="AN307" s="15"/>
       <c r="AO307" s="15"/>
     </row>
-    <row r="308" hidden="1" spans="1:41">
+    <row r="308" spans="1:41">
       <c r="A308" s="7" t="s">
         <v>774</v>
       </c>
@@ -22278,7 +22270,7 @@
       <c r="AN308" s="15"/>
       <c r="AO308" s="15"/>
     </row>
-    <row r="309" hidden="1" spans="1:41">
+    <row r="309" spans="1:41">
       <c r="A309" s="7" t="s">
         <v>777</v>
       </c>
@@ -22335,7 +22327,7 @@
       <c r="AN309" s="15"/>
       <c r="AO309" s="15"/>
     </row>
-    <row r="310" hidden="1" spans="1:41">
+    <row r="310" spans="1:41">
       <c r="A310" s="7" t="s">
         <v>779</v>
       </c>
@@ -22392,7 +22384,7 @@
       <c r="AN310" s="15"/>
       <c r="AO310" s="15"/>
     </row>
-    <row r="311" hidden="1" spans="1:41">
+    <row r="311" spans="1:41">
       <c r="A311" s="7" t="s">
         <v>781</v>
       </c>
@@ -22449,7 +22441,7 @@
       <c r="AN311" s="15"/>
       <c r="AO311" s="15"/>
     </row>
-    <row r="312" hidden="1" spans="1:41">
+    <row r="312" spans="1:41">
       <c r="A312" s="7" t="s">
         <v>784</v>
       </c>
@@ -22506,7 +22498,7 @@
       <c r="AN312" s="15"/>
       <c r="AO312" s="15"/>
     </row>
-    <row r="313" hidden="1" spans="1:41">
+    <row r="313" spans="1:41">
       <c r="A313" s="7" t="s">
         <v>786</v>
       </c>
@@ -22563,7 +22555,7 @@
       <c r="AN313" s="15"/>
       <c r="AO313" s="15"/>
     </row>
-    <row r="314" hidden="1" spans="1:41">
+    <row r="314" spans="1:41">
       <c r="A314" s="7" t="s">
         <v>788</v>
       </c>
@@ -22620,7 +22612,7 @@
       <c r="AN314" s="15"/>
       <c r="AO314" s="15"/>
     </row>
-    <row r="315" hidden="1" spans="1:41">
+    <row r="315" spans="1:41">
       <c r="A315" s="7" t="s">
         <v>790</v>
       </c>
@@ -22736,7 +22728,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:41">
+    <row r="317" spans="1:41">
       <c r="A317" s="7" t="s">
         <v>795</v>
       </c>
@@ -22793,7 +22785,7 @@
       <c r="AN317" s="15"/>
       <c r="AO317" s="15"/>
     </row>
-    <row r="318" hidden="1" spans="1:41">
+    <row r="318" spans="1:41">
       <c r="A318" s="7" t="s">
         <v>797</v>
       </c>
@@ -22850,7 +22842,7 @@
       <c r="AN318" s="15"/>
       <c r="AO318" s="15"/>
     </row>
-    <row r="319" hidden="1" spans="1:41">
+    <row r="319" spans="1:41">
       <c r="A319" s="7" t="s">
         <v>799</v>
       </c>
@@ -22907,7 +22899,7 @@
       <c r="AN319" s="15"/>
       <c r="AO319" s="15"/>
     </row>
-    <row r="320" hidden="1" spans="1:41">
+    <row r="320" spans="1:41">
       <c r="A320" s="7" t="s">
         <v>801</v>
       </c>
@@ -22964,7 +22956,7 @@
       <c r="AN320" s="15"/>
       <c r="AO320" s="15"/>
     </row>
-    <row r="321" hidden="1" spans="1:41">
+    <row r="321" spans="1:41">
       <c r="A321" s="7" t="s">
         <v>803</v>
       </c>
@@ -23021,7 +23013,7 @@
       <c r="AN321" s="15"/>
       <c r="AO321" s="15"/>
     </row>
-    <row r="322" hidden="1" spans="1:41">
+    <row r="322" spans="1:41">
       <c r="A322" s="7" t="s">
         <v>805</v>
       </c>
@@ -23078,7 +23070,7 @@
       <c r="AN322" s="15"/>
       <c r="AO322" s="15"/>
     </row>
-    <row r="323" hidden="1" spans="1:41">
+    <row r="323" spans="1:41">
       <c r="A323" s="7" t="s">
         <v>808</v>
       </c>
@@ -23135,7 +23127,7 @@
       <c r="AN323" s="15"/>
       <c r="AO323" s="15"/>
     </row>
-    <row r="324" hidden="1" spans="1:41">
+    <row r="324" spans="1:41">
       <c r="A324" s="7" t="s">
         <v>810</v>
       </c>
@@ -23192,7 +23184,7 @@
       <c r="AN324" s="15"/>
       <c r="AO324" s="15"/>
     </row>
-    <row r="325" hidden="1" spans="1:41">
+    <row r="325" spans="1:41">
       <c r="A325" s="7" t="s">
         <v>813</v>
       </c>
@@ -23249,7 +23241,7 @@
       <c r="AN325" s="15"/>
       <c r="AO325" s="15"/>
     </row>
-    <row r="326" hidden="1" spans="1:41">
+    <row r="326" spans="1:41">
       <c r="A326" s="7" t="s">
         <v>815</v>
       </c>
@@ -23306,7 +23298,7 @@
       <c r="AN326" s="15"/>
       <c r="AO326" s="15"/>
     </row>
-    <row r="327" hidden="1" spans="1:41">
+    <row r="327" spans="1:41">
       <c r="A327" s="7" t="s">
         <v>817</v>
       </c>
@@ -23363,7 +23355,7 @@
       <c r="AN327" s="15"/>
       <c r="AO327" s="15"/>
     </row>
-    <row r="328" hidden="1" spans="1:41">
+    <row r="328" spans="1:41">
       <c r="A328" s="7" t="s">
         <v>820</v>
       </c>
@@ -23479,7 +23471,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:41">
+    <row r="330" spans="1:41">
       <c r="A330" s="7" t="s">
         <v>825</v>
       </c>
@@ -23536,7 +23528,7 @@
       <c r="AN330" s="15"/>
       <c r="AO330" s="15"/>
     </row>
-    <row r="331" hidden="1" spans="1:41">
+    <row r="331" spans="1:41">
       <c r="A331" s="7" t="s">
         <v>828</v>
       </c>
@@ -23593,7 +23585,7 @@
       <c r="AN331" s="15"/>
       <c r="AO331" s="15"/>
     </row>
-    <row r="332" hidden="1" spans="1:41">
+    <row r="332" spans="1:41">
       <c r="A332" s="7" t="s">
         <v>830</v>
       </c>
@@ -23650,7 +23642,7 @@
       <c r="AN332" s="15"/>
       <c r="AO332" s="15"/>
     </row>
-    <row r="333" hidden="1" spans="1:41">
+    <row r="333" spans="1:41">
       <c r="A333" s="7" t="s">
         <v>833</v>
       </c>
@@ -23707,7 +23699,7 @@
       <c r="AN333" s="15"/>
       <c r="AO333" s="15"/>
     </row>
-    <row r="334" hidden="1" spans="1:41">
+    <row r="334" spans="1:41">
       <c r="A334" s="7" t="s">
         <v>835</v>
       </c>
@@ -23764,7 +23756,7 @@
       <c r="AN334" s="15"/>
       <c r="AO334" s="15"/>
     </row>
-    <row r="335" hidden="1" spans="1:41">
+    <row r="335" spans="1:41">
       <c r="A335" s="7" t="s">
         <v>837</v>
       </c>
@@ -23914,7 +23906,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:41">
+    <row r="337" spans="1:41">
       <c r="A337" s="7" t="s">
         <v>841</v>
       </c>
@@ -23971,7 +23963,7 @@
       <c r="AN337" s="15"/>
       <c r="AO337" s="15"/>
     </row>
-    <row r="338" hidden="1" spans="1:41">
+    <row r="338" spans="1:41">
       <c r="A338" s="7" t="s">
         <v>844</v>
       </c>
@@ -24028,7 +24020,7 @@
       <c r="AN338" s="15"/>
       <c r="AO338" s="15"/>
     </row>
-    <row r="339" hidden="1" spans="1:41">
+    <row r="339" spans="1:41">
       <c r="A339" s="7" t="s">
         <v>846</v>
       </c>
@@ -24085,7 +24077,7 @@
       <c r="AN339" s="15"/>
       <c r="AO339" s="15"/>
     </row>
-    <row r="340" hidden="1" spans="1:41">
+    <row r="340" spans="1:41">
       <c r="A340" s="7" t="s">
         <v>848</v>
       </c>
@@ -24226,7 +24218,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:41">
+    <row r="342" spans="1:41">
       <c r="A342" s="7" t="s">
         <v>852</v>
       </c>
@@ -24283,7 +24275,7 @@
       <c r="AN342" s="15"/>
       <c r="AO342" s="15"/>
     </row>
-    <row r="343" hidden="1" spans="1:41">
+    <row r="343" spans="1:41">
       <c r="A343" s="7" t="s">
         <v>854</v>
       </c>
@@ -24486,7 +24478,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:41">
+    <row r="346" spans="1:41">
       <c r="A346" s="7" t="s">
         <v>860</v>
       </c>
@@ -24543,7 +24535,7 @@
       <c r="AN346" s="15"/>
       <c r="AO346" s="15"/>
     </row>
-    <row r="347" hidden="1" spans="1:41">
+    <row r="347" spans="1:41">
       <c r="A347" s="7" t="s">
         <v>862</v>
       </c>
@@ -24600,7 +24592,7 @@
       <c r="AN347" s="15"/>
       <c r="AO347" s="15"/>
     </row>
-    <row r="348" hidden="1" spans="1:41">
+    <row r="348" spans="1:41">
       <c r="A348" s="7" t="s">
         <v>864</v>
       </c>
@@ -24657,7 +24649,7 @@
       <c r="AN348" s="15"/>
       <c r="AO348" s="15"/>
     </row>
-    <row r="349" hidden="1" spans="1:41">
+    <row r="349" spans="1:41">
       <c r="A349" s="7" t="s">
         <v>866</v>
       </c>
@@ -24714,7 +24706,7 @@
       <c r="AN349" s="15"/>
       <c r="AO349" s="15"/>
     </row>
-    <row r="350" hidden="1" spans="1:41">
+    <row r="350" spans="1:41">
       <c r="A350" s="7" t="s">
         <v>869</v>
       </c>
@@ -24771,7 +24763,7 @@
       <c r="AN350" s="15"/>
       <c r="AO350" s="15"/>
     </row>
-    <row r="351" hidden="1" spans="1:41">
+    <row r="351" spans="1:41">
       <c r="A351" s="7" t="s">
         <v>871</v>
       </c>
@@ -24828,7 +24820,7 @@
       <c r="AN351" s="15"/>
       <c r="AO351" s="15"/>
     </row>
-    <row r="352" hidden="1" spans="1:41">
+    <row r="352" spans="1:41">
       <c r="A352" s="7" t="s">
         <v>873</v>
       </c>
@@ -24885,7 +24877,7 @@
       <c r="AN352" s="15"/>
       <c r="AO352" s="15"/>
     </row>
-    <row r="353" hidden="1" spans="1:41">
+    <row r="353" spans="1:41">
       <c r="A353" s="7" t="s">
         <v>875</v>
       </c>
@@ -24942,7 +24934,7 @@
       <c r="AN353" s="15"/>
       <c r="AO353" s="15"/>
     </row>
-    <row r="354" hidden="1" spans="1:41">
+    <row r="354" spans="1:41">
       <c r="A354" s="7" t="s">
         <v>877</v>
       </c>
@@ -24999,7 +24991,7 @@
       <c r="AN354" s="15"/>
       <c r="AO354" s="15"/>
     </row>
-    <row r="355" hidden="1" spans="1:41">
+    <row r="355" spans="1:41">
       <c r="A355" s="7" t="s">
         <v>879</v>
       </c>
@@ -25056,7 +25048,7 @@
       <c r="AN355" s="15"/>
       <c r="AO355" s="15"/>
     </row>
-    <row r="356" hidden="1" spans="1:41">
+    <row r="356" spans="1:41">
       <c r="A356" s="7" t="s">
         <v>881</v>
       </c>
@@ -25113,7 +25105,7 @@
       <c r="AN356" s="15"/>
       <c r="AO356" s="15"/>
     </row>
-    <row r="357" hidden="1" spans="1:41">
+    <row r="357" spans="1:41">
       <c r="A357" s="7" t="s">
         <v>883</v>
       </c>
@@ -25170,7 +25162,7 @@
       <c r="AN357" s="15"/>
       <c r="AO357" s="15"/>
     </row>
-    <row r="358" hidden="1" spans="1:41">
+    <row r="358" spans="1:41">
       <c r="A358" s="7" t="s">
         <v>885</v>
       </c>
@@ -25369,11 +25361,6 @@
       <c r="AO360" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B360">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -25404,7 +25391,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
